--- a/Filtered_By_Region/Region VII/Region VII_HEALTH.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z124"/>
+  <dimension ref="A1:AA124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +569,11 @@
           <t>Other Remarks</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -685,7 +691,6 @@
           <t>A.O.S. Construction Services</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -803,7 +808,6 @@
           <t>GELA CONSTRUCTION OPC</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -921,7 +925,6 @@
           <t>BARR STEEL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1039,7 +1042,6 @@
           <t>RT CONSTRUCTION &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1157,7 +1159,6 @@
           <t>ANIELTHON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1275,7 +1276,6 @@
           <t>GOLDEN HAMMER CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1393,7 +1393,6 @@
           <t>HERO CONSTRUCTION &amp; DEV'T CORP</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1450,7 +1449,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>not yet started</t>
@@ -1459,17 +1457,6 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1585,7 +1572,6 @@
           <t>Quicksilver Construction</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1621,7 +1607,6 @@
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>-</t>
@@ -1699,7 +1684,6 @@
           <t>Quicksilver Construction</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1752,7 +1736,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1761,21 +1744,12 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1828,7 +1802,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1837,21 +1810,12 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1904,7 +1868,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1913,21 +1876,12 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1980,7 +1934,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1989,21 +1942,12 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2056,7 +2000,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2065,21 +2008,12 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2132,7 +2066,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2141,21 +2074,12 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2208,7 +2132,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2217,21 +2140,12 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2284,7 +2198,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2293,21 +2206,12 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2360,7 +2264,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2369,21 +2272,12 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2436,7 +2330,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2445,21 +2338,12 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2512,7 +2396,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2521,21 +2404,12 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2588,7 +2462,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2597,21 +2470,12 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2664,7 +2528,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2673,21 +2536,12 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2740,7 +2594,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2749,21 +2602,12 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2816,7 +2660,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2825,21 +2668,12 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2892,7 +2726,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2901,21 +2734,12 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2968,7 +2792,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2977,21 +2800,12 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3044,7 +2858,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3053,21 +2866,12 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3120,7 +2924,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3129,21 +2932,12 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3196,7 +2990,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3205,21 +2998,12 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,7 +3056,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3281,21 +3064,12 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3348,7 +3122,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3357,21 +3130,12 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3424,7 +3188,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3433,21 +3196,12 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3500,7 +3254,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3509,21 +3262,12 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3576,7 +3320,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3585,21 +3328,12 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3652,7 +3386,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3661,21 +3394,12 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3728,7 +3452,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3737,21 +3460,12 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3804,7 +3518,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3813,21 +3526,12 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3880,7 +3584,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3889,21 +3592,12 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" s="2" t="n">
+      <c r="U40" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V40" s="2" t="n">
+      <c r="V40" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3956,7 +3650,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3965,21 +3658,12 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" s="2" t="n">
+      <c r="U41" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V41" s="2" t="n">
+      <c r="V41" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4032,7 +3716,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4041,21 +3724,12 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" s="2" t="n">
+      <c r="U42" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V42" s="2" t="n">
+      <c r="V42" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4108,7 +3782,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4117,21 +3790,12 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" s="2" t="n">
+      <c r="U43" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V43" s="2" t="n">
+      <c r="V43" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4184,7 +3848,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4193,21 +3856,12 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" s="2" t="n">
+      <c r="U44" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V44" s="2" t="n">
+      <c r="V44" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4260,7 +3914,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4269,21 +3922,12 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" s="2" t="n">
+      <c r="U45" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="V45" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4336,7 +3980,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4345,21 +3988,12 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" s="2" t="n">
+      <c r="U46" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V46" s="2" t="n">
+      <c r="V46" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4412,7 +4046,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4421,21 +4054,12 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" s="2" t="n">
+      <c r="U47" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V47" s="2" t="n">
+      <c r="V47" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4488,7 +4112,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4497,21 +4120,12 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" s="2" t="n">
+      <c r="U48" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V48" s="2" t="n">
+      <c r="V48" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4564,7 +4178,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4573,21 +4186,12 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" s="2" t="n">
+      <c r="U49" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V49" s="2" t="n">
+      <c r="V49" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4640,7 +4244,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4649,21 +4252,12 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" s="2" t="n">
+      <c r="U50" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V50" s="2" t="n">
+      <c r="V50" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4716,7 +4310,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4725,21 +4318,12 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" s="2" t="n">
+      <c r="U51" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V51" s="2" t="n">
+      <c r="V51" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4792,7 +4376,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4801,21 +4384,12 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" s="2" t="n">
+      <c r="U52" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V52" s="2" t="n">
+      <c r="V52" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4868,7 +4442,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4877,21 +4450,12 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" s="2" t="n">
+      <c r="U53" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V53" s="2" t="n">
+      <c r="V53" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4944,7 +4508,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4953,21 +4516,12 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" s="2" t="n">
+      <c r="U54" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V54" s="2" t="n">
+      <c r="V54" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5020,7 +4574,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5029,21 +4582,12 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" s="2" t="n">
+      <c r="U55" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V55" s="2" t="n">
+      <c r="V55" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5096,7 +4640,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5105,21 +4648,12 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" s="2" t="n">
+      <c r="U56" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V56" s="2" t="n">
+      <c r="V56" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5172,7 +4706,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5181,21 +4714,12 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" s="2" t="n">
+      <c r="U57" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V57" s="2" t="n">
+      <c r="V57" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5248,7 +4772,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5257,21 +4780,12 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" s="2" t="n">
+      <c r="U58" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V58" s="2" t="n">
+      <c r="V58" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5324,7 +4838,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5333,21 +4846,12 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" s="2" t="n">
+      <c r="U59" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V59" s="2" t="n">
+      <c r="V59" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5400,7 +4904,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5409,21 +4912,12 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" s="2" t="n">
+      <c r="U60" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V60" s="2" t="n">
+      <c r="V60" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5476,7 +4970,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5485,21 +4978,12 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" s="2" t="n">
+      <c r="U61" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V61" s="2" t="n">
+      <c r="V61" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5552,7 +5036,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5561,21 +5044,12 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" s="2" t="n">
+      <c r="U62" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V62" s="2" t="n">
+      <c r="V62" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5628,7 +5102,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5637,21 +5110,12 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" s="2" t="n">
+      <c r="U63" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V63" s="2" t="n">
+      <c r="V63" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5704,7 +5168,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5713,21 +5176,12 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" s="2" t="n">
+      <c r="U64" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V64" s="2" t="n">
+      <c r="V64" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5780,7 +5234,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5789,21 +5242,12 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" s="2" t="n">
+      <c r="U65" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V65" s="2" t="n">
+      <c r="V65" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5856,7 +5300,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5865,21 +5308,12 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" s="2" t="n">
+      <c r="U66" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V66" s="2" t="n">
+      <c r="V66" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5932,7 +5366,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5941,21 +5374,12 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" s="2" t="n">
+      <c r="U67" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V67" s="2" t="n">
+      <c r="V67" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6008,7 +5432,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6017,21 +5440,12 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" s="2" t="n">
+      <c r="U68" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V68" s="2" t="n">
+      <c r="V68" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6084,7 +5498,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6093,21 +5506,12 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" s="2" t="n">
+      <c r="U69" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V69" s="2" t="n">
+      <c r="V69" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6160,7 +5564,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6169,21 +5572,12 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" s="2" t="n">
+      <c r="U70" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V70" s="2" t="n">
+      <c r="V70" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6236,7 +5630,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6245,21 +5638,12 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" s="2" t="n">
+      <c r="U71" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V71" s="2" t="n">
+      <c r="V71" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6312,7 +5696,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6321,21 +5704,12 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" s="2" t="n">
+      <c r="U72" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V72" s="2" t="n">
+      <c r="V72" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6388,7 +5762,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6397,21 +5770,12 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" s="2" t="n">
+      <c r="U73" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V73" s="2" t="n">
+      <c r="V73" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6464,7 +5828,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6473,21 +5836,12 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" s="2" t="n">
+      <c r="U74" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V74" s="2" t="n">
+      <c r="V74" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6540,7 +5894,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6549,21 +5902,12 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" s="2" t="n">
+      <c r="U75" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V75" s="2" t="n">
+      <c r="V75" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6616,7 +5960,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6625,21 +5968,12 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" s="2" t="n">
+      <c r="U76" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V76" s="2" t="n">
+      <c r="V76" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6692,7 +6026,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6701,21 +6034,12 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" s="2" t="n">
+      <c r="U77" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V77" s="2" t="n">
+      <c r="V77" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6768,7 +6092,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6777,21 +6100,12 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" s="2" t="n">
+      <c r="U78" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V78" s="2" t="n">
+      <c r="V78" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6844,7 +6158,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6853,21 +6166,12 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" s="2" t="n">
+      <c r="U79" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V79" s="2" t="n">
+      <c r="V79" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6920,7 +6224,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6929,21 +6232,12 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" s="2" t="n">
+      <c r="U80" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V80" s="2" t="n">
+      <c r="V80" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6996,7 +6290,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7005,21 +6298,12 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" s="2" t="n">
+      <c r="U81" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V81" s="2" t="n">
+      <c r="V81" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7072,7 +6356,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7081,21 +6364,12 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" s="2" t="n">
+      <c r="U82" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V82" s="2" t="n">
+      <c r="V82" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7148,7 +6422,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7157,21 +6430,12 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" s="2" t="n">
+      <c r="U83" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V83" s="2" t="n">
+      <c r="V83" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7224,7 +6488,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7233,21 +6496,12 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" s="2" t="n">
+      <c r="U84" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="V84" s="2" t="n">
+      <c r="V84" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7311,12 +6565,9 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
-      <c r="P85" s="2" t="n">
+      <c r="P85" s="3" t="n">
         <v>44895</v>
       </c>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
           <t>03/28/22; 07/04/22</t>
@@ -7332,10 +6583,10 @@
           <t>4/18/22; 07/25/22</t>
         </is>
       </c>
-      <c r="W85" s="2" t="n">
+      <c r="W85" s="3" t="n">
         <v>44782</v>
       </c>
-      <c r="X85" s="2" t="n">
+      <c r="X85" s="3" t="n">
         <v>44855</v>
       </c>
       <c r="Y85" t="inlineStr">
@@ -7343,7 +6594,6 @@
           <t>Sagittarius Construction</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7407,12 +6657,9 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86" s="2" t="n">
+      <c r="P86" s="3" t="n">
         <v>44895</v>
       </c>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
           <t>03/28/22; 07/04/22</t>
@@ -7428,10 +6675,10 @@
           <t>4/18/22; 07/25/22</t>
         </is>
       </c>
-      <c r="W86" s="2" t="n">
+      <c r="W86" s="3" t="n">
         <v>44782</v>
       </c>
-      <c r="X86" s="2" t="n">
+      <c r="X86" s="3" t="n">
         <v>44855</v>
       </c>
       <c r="Y86" t="inlineStr">
@@ -7439,7 +6686,6 @@
           <t>Sagittarius Construction</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7503,12 +6749,9 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
-      <c r="P87" s="2" t="n">
+      <c r="P87" s="3" t="n">
         <v>44910</v>
       </c>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
           <t>03/28/22; 07/04/22</t>
@@ -7524,10 +6767,10 @@
           <t>4/18/22; 07/25/22</t>
         </is>
       </c>
-      <c r="W87" s="2" t="n">
+      <c r="W87" s="3" t="n">
         <v>44782</v>
       </c>
-      <c r="X87" s="2" t="n">
+      <c r="X87" s="3" t="n">
         <v>44855</v>
       </c>
       <c r="Y87" t="inlineStr">
@@ -7535,7 +6778,6 @@
           <t>Sagittarius Construction</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7599,25 +6841,22 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="P88" s="2" t="n">
+      <c r="P88" s="3" t="n">
         <v>44865</v>
       </c>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" s="2" t="n">
+      <c r="T88" s="3" t="n">
         <v>44649</v>
       </c>
-      <c r="U88" s="2" t="n">
+      <c r="U88" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="V88" s="2" t="n">
+      <c r="V88" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W88" s="2" t="n">
+      <c r="W88" s="3" t="n">
         <v>44672</v>
       </c>
-      <c r="X88" s="2" t="n">
+      <c r="X88" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="Y88" t="inlineStr">
@@ -7625,7 +6864,6 @@
           <t>E.D. Angas Construction</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7689,25 +6927,22 @@
       <c r="O89" t="n">
         <v>1</v>
       </c>
-      <c r="P89" s="2" t="n">
+      <c r="P89" s="3" t="n">
         <v>44865</v>
       </c>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" s="2" t="n">
+      <c r="T89" s="3" t="n">
         <v>44649</v>
       </c>
-      <c r="U89" s="2" t="n">
+      <c r="U89" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="V89" s="2" t="n">
+      <c r="V89" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W89" s="2" t="n">
+      <c r="W89" s="3" t="n">
         <v>44672</v>
       </c>
-      <c r="X89" s="2" t="n">
+      <c r="X89" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="Y89" t="inlineStr">
@@ -7715,7 +6950,6 @@
           <t>E.D. Angas Construction</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7779,25 +7013,22 @@
       <c r="O90" t="n">
         <v>1</v>
       </c>
-      <c r="P90" s="2" t="n">
+      <c r="P90" s="3" t="n">
         <v>44865</v>
       </c>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" s="2" t="n">
+      <c r="T90" s="3" t="n">
         <v>44649</v>
       </c>
-      <c r="U90" s="2" t="n">
+      <c r="U90" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="V90" s="2" t="n">
+      <c r="V90" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W90" s="2" t="n">
+      <c r="W90" s="3" t="n">
         <v>44672</v>
       </c>
-      <c r="X90" s="2" t="n">
+      <c r="X90" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="Y90" t="inlineStr">
@@ -7805,7 +7036,6 @@
           <t>E.D. Angas Construction</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7869,25 +7099,22 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="P91" s="2" t="n">
+      <c r="P91" s="3" t="n">
         <v>44865</v>
       </c>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" s="2" t="n">
+      <c r="T91" s="3" t="n">
         <v>44649</v>
       </c>
-      <c r="U91" s="2" t="n">
+      <c r="U91" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="V91" s="2" t="n">
+      <c r="V91" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W91" s="2" t="n">
+      <c r="W91" s="3" t="n">
         <v>44672</v>
       </c>
-      <c r="X91" s="2" t="n">
+      <c r="X91" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="Y91" t="inlineStr">
@@ -7895,7 +7122,6 @@
           <t>E.D. Angas Construction</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7959,25 +7185,22 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="P92" s="2" t="n">
+      <c r="P92" s="3" t="n">
         <v>44865</v>
       </c>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" s="2" t="n">
+      <c r="T92" s="3" t="n">
         <v>44649</v>
       </c>
-      <c r="U92" s="2" t="n">
+      <c r="U92" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="V92" s="2" t="n">
+      <c r="V92" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W92" s="2" t="n">
+      <c r="W92" s="3" t="n">
         <v>44672</v>
       </c>
-      <c r="X92" s="2" t="n">
+      <c r="X92" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="Y92" t="inlineStr">
@@ -7985,7 +7208,6 @@
           <t>E.D. Angas Construction</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8049,25 +7271,22 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
-      <c r="P93" s="2" t="n">
+      <c r="P93" s="3" t="n">
         <v>44865</v>
       </c>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" s="2" t="n">
+      <c r="T93" s="3" t="n">
         <v>44649</v>
       </c>
-      <c r="U93" s="2" t="n">
+      <c r="U93" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="V93" s="2" t="n">
+      <c r="V93" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W93" s="2" t="n">
+      <c r="W93" s="3" t="n">
         <v>44672</v>
       </c>
-      <c r="X93" s="2" t="n">
+      <c r="X93" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="Y93" t="inlineStr">
@@ -8075,7 +7294,6 @@
           <t>E.D. Angas Construction</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8139,25 +7357,22 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="P94" s="2" t="n">
+      <c r="P94" s="3" t="n">
         <v>44865</v>
       </c>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" s="2" t="n">
+      <c r="T94" s="3" t="n">
         <v>44649</v>
       </c>
-      <c r="U94" s="2" t="n">
+      <c r="U94" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="V94" s="2" t="n">
+      <c r="V94" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W94" s="2" t="n">
+      <c r="W94" s="3" t="n">
         <v>44672</v>
       </c>
-      <c r="X94" s="2" t="n">
+      <c r="X94" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="Y94" t="inlineStr">
@@ -8165,7 +7380,6 @@
           <t>E.D. Angas Construction</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8229,25 +7443,22 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
-      <c r="P95" s="2" t="n">
+      <c r="P95" s="3" t="n">
         <v>44865</v>
       </c>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" s="2" t="n">
+      <c r="T95" s="3" t="n">
         <v>44649</v>
       </c>
-      <c r="U95" s="2" t="n">
+      <c r="U95" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="V95" s="2" t="n">
+      <c r="V95" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W95" s="2" t="n">
+      <c r="W95" s="3" t="n">
         <v>44672</v>
       </c>
-      <c r="X95" s="2" t="n">
+      <c r="X95" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="Y95" t="inlineStr">
@@ -8255,7 +7466,6 @@
           <t>E.D. Angas Construction</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8319,25 +7529,22 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96" s="2" t="n">
+      <c r="P96" s="3" t="n">
         <v>44865</v>
       </c>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" s="2" t="n">
+      <c r="T96" s="3" t="n">
         <v>44649</v>
       </c>
-      <c r="U96" s="2" t="n">
+      <c r="U96" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="V96" s="2" t="n">
+      <c r="V96" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W96" s="2" t="n">
+      <c r="W96" s="3" t="n">
         <v>44672</v>
       </c>
-      <c r="X96" s="2" t="n">
+      <c r="X96" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="Y96" t="inlineStr">
@@ -8345,7 +7552,6 @@
           <t>E.D. Angas Construction</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8409,25 +7615,22 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" s="2" t="n">
+      <c r="P97" s="3" t="n">
         <v>44865</v>
       </c>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" s="2" t="n">
+      <c r="T97" s="3" t="n">
         <v>44649</v>
       </c>
-      <c r="U97" s="2" t="n">
+      <c r="U97" s="3" t="n">
         <v>44656</v>
       </c>
-      <c r="V97" s="2" t="n">
+      <c r="V97" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="W97" s="2" t="n">
+      <c r="W97" s="3" t="n">
         <v>44672</v>
       </c>
-      <c r="X97" s="2" t="n">
+      <c r="X97" s="3" t="n">
         <v>44740</v>
       </c>
       <c r="Y97" t="inlineStr">
@@ -8435,7 +7638,6 @@
           <t>E.D. Angas Construction</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8488,7 +7690,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8497,10 +7698,9 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" s="2" t="n">
+      <c r="P98" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
@@ -8531,7 +7731,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X98" s="2" t="n">
+      <c r="X98" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y98" t="inlineStr">
@@ -8539,7 +7739,6 @@
           <t>Ten twenty allied developers</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8592,7 +7791,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8601,10 +7799,9 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
-      <c r="P99" s="2" t="n">
+      <c r="P99" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
@@ -8635,7 +7832,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X99" s="2" t="n">
+      <c r="X99" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y99" t="inlineStr">
@@ -8643,7 +7840,6 @@
           <t>Ten twenty allied developers</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8696,7 +7892,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8705,10 +7900,9 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
-      <c r="P100" s="2" t="n">
+      <c r="P100" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
@@ -8739,7 +7933,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X100" s="2" t="n">
+      <c r="X100" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y100" t="inlineStr">
@@ -8747,7 +7941,6 @@
           <t>Ten twenty allied developers</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8800,7 +7993,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8809,10 +8001,9 @@
       <c r="O101" t="n">
         <v>1</v>
       </c>
-      <c r="P101" s="2" t="n">
+      <c r="P101" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
@@ -8843,7 +8034,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X101" s="2" t="n">
+      <c r="X101" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y101" t="inlineStr">
@@ -8851,7 +8042,6 @@
           <t>Ten twenty allied developers</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8885,7 +8075,6 @@
       <c r="G102" t="n">
         <v>2</v>
       </c>
-      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
         <v>1</v>
       </c>
@@ -8902,7 +8091,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8911,10 +8099,9 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
-      <c r="P102" s="2" t="n">
+      <c r="P102" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
@@ -8945,7 +8132,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X102" s="2" t="n">
+      <c r="X102" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y102" t="inlineStr">
@@ -8953,7 +8140,6 @@
           <t>Ten twenty allied developers</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9006,7 +8192,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9015,10 +8200,9 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
-      <c r="P103" s="2" t="n">
+      <c r="P103" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
@@ -9049,7 +8233,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X103" s="2" t="n">
+      <c r="X103" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y103" t="inlineStr">
@@ -9057,7 +8241,6 @@
           <t>Ten twenty allied developers</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9110,7 +8293,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9119,10 +8301,9 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
-      <c r="P104" s="2" t="n">
+      <c r="P104" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
@@ -9153,7 +8334,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X104" s="2" t="n">
+      <c r="X104" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y104" t="inlineStr">
@@ -9161,7 +8342,6 @@
           <t>GCATZ Construction</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9214,7 +8394,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9223,10 +8402,9 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
-      <c r="P105" s="2" t="n">
+      <c r="P105" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
@@ -9257,7 +8435,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X105" s="2" t="n">
+      <c r="X105" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y105" t="inlineStr">
@@ -9265,7 +8443,6 @@
           <t>GCATZ Construction</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9318,7 +8495,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9327,10 +8503,9 @@
       <c r="O106" t="n">
         <v>1</v>
       </c>
-      <c r="P106" s="2" t="n">
+      <c r="P106" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
@@ -9361,7 +8536,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X106" s="2" t="n">
+      <c r="X106" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y106" t="inlineStr">
@@ -9369,7 +8544,6 @@
           <t>GCATZ Construction</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9422,7 +8596,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9431,10 +8604,9 @@
       <c r="O107" t="n">
         <v>1</v>
       </c>
-      <c r="P107" s="2" t="n">
+      <c r="P107" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
@@ -9465,7 +8637,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X107" s="2" t="n">
+      <c r="X107" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y107" t="inlineStr">
@@ -9473,7 +8645,6 @@
           <t>GCATZ Construction</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9526,7 +8697,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9535,10 +8705,9 @@
       <c r="O108" t="n">
         <v>1</v>
       </c>
-      <c r="P108" s="2" t="n">
+      <c r="P108" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
         <is>
           <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
@@ -9569,7 +8738,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X108" s="2" t="n">
+      <c r="X108" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y108" t="inlineStr">
@@ -9577,7 +8746,6 @@
           <t>Ten twenty allied Developers</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9630,7 +8798,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9639,10 +8806,9 @@
       <c r="O109" t="n">
         <v>1</v>
       </c>
-      <c r="P109" s="2" t="n">
+      <c r="P109" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr">
         <is>
           <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
@@ -9673,7 +8839,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X109" s="2" t="n">
+      <c r="X109" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y109" t="inlineStr">
@@ -9681,7 +8847,6 @@
           <t>Ten twenty allied Developers</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9715,7 +8880,6 @@
       <c r="G110" t="n">
         <v>2</v>
       </c>
-      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
         <v>1</v>
       </c>
@@ -9732,7 +8896,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9741,10 +8904,9 @@
       <c r="O110" t="n">
         <v>1</v>
       </c>
-      <c r="P110" s="2" t="n">
+      <c r="P110" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr">
         <is>
           <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
@@ -9775,7 +8937,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X110" s="2" t="n">
+      <c r="X110" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y110" t="inlineStr">
@@ -9783,7 +8945,6 @@
           <t>Ten twenty allied Developers</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9836,7 +8997,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9845,10 +9005,9 @@
       <c r="O111" t="n">
         <v>1</v>
       </c>
-      <c r="P111" s="2" t="n">
+      <c r="P111" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr">
         <is>
           <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
@@ -9879,7 +9038,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X111" s="2" t="n">
+      <c r="X111" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y111" t="inlineStr">
@@ -9887,7 +9046,6 @@
           <t>Ten twenty allied Developers</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9940,7 +9098,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9949,10 +9106,9 @@
       <c r="O112" t="n">
         <v>1</v>
       </c>
-      <c r="P112" s="2" t="n">
+      <c r="P112" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr">
         <is>
           <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
@@ -9983,7 +9139,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X112" s="2" t="n">
+      <c r="X112" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y112" t="inlineStr">
@@ -9991,7 +9147,6 @@
           <t>Ten twenty allied Developers</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10044,7 +9199,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10093,7 +9247,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X113" s="2" t="n">
+      <c r="X113" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y113" t="inlineStr">
@@ -10101,7 +9255,6 @@
           <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10135,7 +9288,6 @@
       <c r="G114" t="n">
         <v>2</v>
       </c>
-      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
         <v>1</v>
       </c>
@@ -10152,7 +9304,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10201,7 +9352,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X114" s="2" t="n">
+      <c r="X114" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y114" t="inlineStr">
@@ -10209,7 +9360,6 @@
           <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10262,7 +9412,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10311,7 +9460,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X115" s="2" t="n">
+      <c r="X115" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y115" t="inlineStr">
@@ -10319,7 +9468,6 @@
           <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10353,7 +9501,6 @@
       <c r="G116" t="n">
         <v>2</v>
       </c>
-      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
         <v>1</v>
       </c>
@@ -10370,7 +9517,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10419,7 +9565,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X116" s="2" t="n">
+      <c r="X116" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y116" t="inlineStr">
@@ -10427,7 +9573,6 @@
           <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10480,7 +9625,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10529,7 +9673,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X117" s="2" t="n">
+      <c r="X117" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y117" t="inlineStr">
@@ -10537,7 +9681,6 @@
           <t>Tri-bairn Construction</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10571,7 +9714,6 @@
       <c r="G118" t="n">
         <v>2</v>
       </c>
-      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
         <v>1</v>
       </c>
@@ -10588,7 +9730,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10637,7 +9778,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X118" s="2" t="n">
+      <c r="X118" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y118" t="inlineStr">
@@ -10645,7 +9786,6 @@
           <t>Tri-bairn Construction</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10679,7 +9819,6 @@
       <c r="G119" t="n">
         <v>2</v>
       </c>
-      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
         <v>1</v>
       </c>
@@ -10696,7 +9835,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10745,7 +9883,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X119" s="2" t="n">
+      <c r="X119" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y119" t="inlineStr">
@@ -10753,7 +9891,6 @@
           <t>Tri-bairn Construction</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10806,7 +9943,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10815,10 +9951,9 @@
       <c r="O120" t="n">
         <v>1</v>
       </c>
-      <c r="P120" s="2" t="n">
+      <c r="P120" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
@@ -10849,7 +9984,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X120" s="2" t="n">
+      <c r="X120" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y120" t="inlineStr">
@@ -10857,7 +9992,6 @@
           <t>GCATZ Construction</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10910,7 +10044,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10919,10 +10052,9 @@
       <c r="O121" t="n">
         <v>1</v>
       </c>
-      <c r="P121" s="2" t="n">
+      <c r="P121" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
@@ -10953,7 +10085,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X121" s="2" t="n">
+      <c r="X121" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y121" t="inlineStr">
@@ -10961,7 +10093,6 @@
           <t>GCATZ Construction</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -11014,7 +10145,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11023,10 +10153,9 @@
       <c r="O122" t="n">
         <v>1</v>
       </c>
-      <c r="P122" s="2" t="n">
+      <c r="P122" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
@@ -11057,7 +10186,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X122" s="2" t="n">
+      <c r="X122" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y122" t="inlineStr">
@@ -11065,7 +10194,6 @@
           <t>Barr steel Construction</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -11118,7 +10246,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11127,10 +10254,9 @@
       <c r="O123" t="n">
         <v>1</v>
       </c>
-      <c r="P123" s="2" t="n">
+      <c r="P123" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
@@ -11161,7 +10287,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X123" s="2" t="n">
+      <c r="X123" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y123" t="inlineStr">
@@ -11169,7 +10295,6 @@
           <t>Barr steel Construction</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11203,7 +10328,6 @@
       <c r="G124" t="n">
         <v>2</v>
       </c>
-      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
         <v>2</v>
       </c>
@@ -11220,7 +10344,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11229,10 +10352,9 @@
       <c r="O124" t="n">
         <v>1</v>
       </c>
-      <c r="P124" s="2" t="n">
+      <c r="P124" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr">
         <is>
           <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
@@ -11263,7 +10385,7 @@
           <t>November 21, 2022</t>
         </is>
       </c>
-      <c r="X124" s="2" t="n">
+      <c r="X124" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="Y124" t="inlineStr">
@@ -11271,7 +10393,79 @@
           <t>Barr steel Construction</t>
         </is>
       </c>
-      <c r="Z124" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AA2:AA124" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Filtered_By_Region/Region VII/Region VII_HEALTH.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_HEALTH.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA124"/>
+  <dimension ref="A1:AF124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -569,7 +569,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -612,11 +637,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Convertion Of Classrooms to School Dental Clinic</t>
@@ -625,11 +645,6 @@
       <c r="K2" t="n">
         <v>2257172.73</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M2" t="n">
         <v>1687612.07</v>
       </c>
@@ -729,11 +744,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -742,11 +752,6 @@
       <c r="K3" t="n">
         <v>2726233.05</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M3" t="n">
         <v>2701147.62</v>
       </c>
@@ -846,11 +851,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -859,11 +859,6 @@
       <c r="K4" t="n">
         <v>2726233.05</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M4" t="n">
         <v>2700751.08</v>
       </c>
@@ -963,11 +958,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -976,11 +966,6 @@
       <c r="K5" t="n">
         <v>2726233.05</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M5" t="n">
         <v>2715451.46</v>
       </c>
@@ -1080,11 +1065,6 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1093,11 +1073,6 @@
       <c r="K6" t="n">
         <v>2810788.92</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M6" t="n">
         <v>2790352.41</v>
       </c>
@@ -1197,11 +1172,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1210,11 +1180,6 @@
       <c r="K7" t="n">
         <v>2810788.92</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M7" t="n">
         <v>2780858.27</v>
       </c>
@@ -1314,11 +1279,6 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1327,11 +1287,6 @@
       <c r="K8" t="n">
         <v>2726233.05</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M8" t="n">
         <v>2696590.22</v>
       </c>
@@ -1431,11 +1386,6 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Clinic &amp; Watsan</t>
@@ -1444,11 +1394,6 @@
       <c r="K9" t="n">
         <v>3525668.96</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>not yet started</t>
@@ -1495,11 +1440,6 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Construction of Hanwashing Facilities</t>
@@ -1508,11 +1448,6 @@
       <c r="K10" t="n">
         <v>200898.19</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M10" t="n">
         <v>188138.49</v>
       </c>
@@ -1607,11 +1542,6 @@
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1620,11 +1550,6 @@
       <c r="K11" t="n">
         <v>3010654.85</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M11" t="n">
         <v>2153178.16</v>
       </c>
@@ -10396,7 +10321,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA124" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF124" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VII/Region VII_HEALTH.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_HEALTH.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA124"/>
+  <dimension ref="A1:AA109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -457,9 +457,9 @@
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="46" customWidth="1" min="5" max="5"/>
+    <col width="44" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
     <col width="211" customWidth="1" min="10" max="10"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>SCHOOL HEALTH FACILITIES 2024</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
@@ -1478,106 +1478,74 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>Siquijor</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>190004</v>
+        <v>117929</v>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>Cangmunag Elementary School</t>
+          <t>Alburquerque Central ES</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lone </t>
-        </is>
+          <t>Alburquerque</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" s="5" t="inlineStr">
         <is>
-          <t>Construction of Hanwashing Facilities</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K10" s="5" t="n">
-        <v>200898.19</v>
-      </c>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="n">
-        <v>188138.49</v>
-      </c>
+        <v>130115.03</v>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="inlineStr"/>
       <c r="N10" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>August 21, 2024</t>
-        </is>
-      </c>
-      <c r="Q10" s="5" t="inlineStr">
-        <is>
-          <t>January 6, 2025</t>
-        </is>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>10336657</v>
-      </c>
-      <c r="S10" s="5" t="inlineStr">
-        <is>
-          <t>2023-88</t>
-        </is>
-      </c>
-      <c r="T10" s="5" t="inlineStr">
-        <is>
-          <t>November 20, 2023</t>
-        </is>
-      </c>
-      <c r="U10" s="5" t="inlineStr">
-        <is>
-          <t>November 28, 2023</t>
-        </is>
-      </c>
-      <c r="V10" s="5" t="inlineStr">
-        <is>
-          <t>December 11, 2023</t>
-        </is>
-      </c>
-      <c r="W10" s="5" t="inlineStr">
-        <is>
-          <t>December 12, 2023</t>
-        </is>
-      </c>
-      <c r="X10" s="5" t="inlineStr">
-        <is>
-          <t>May 21, 2024</t>
-        </is>
-      </c>
-      <c r="Y10" s="5" t="inlineStr">
-        <is>
-          <t>Quicksilver Construction</t>
-        </is>
-      </c>
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="R10" s="5" t="inlineStr"/>
+      <c r="S10" s="5" t="inlineStr"/>
+      <c r="T10" s="5" t="inlineStr"/>
+      <c r="U10" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="V10" s="7" t="n">
+        <v>44727</v>
+      </c>
+      <c r="W10" s="5" t="inlineStr"/>
+      <c r="X10" s="5" t="inlineStr"/>
+      <c r="Y10" s="5" t="inlineStr"/>
       <c r="Z10" s="5" t="inlineStr"/>
       <c r="AA10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>SCHOOL HEALTH FACILITIES 2024</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
@@ -1587,97 +1555,67 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>Siquijor</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>190004</v>
+        <v>117930</v>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>Cangmunag Elementary School</t>
+          <t>Bahi Primary School</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lone </t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+          <t>Alburquerque</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>Construction of School Clinic</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3010654.85</v>
-      </c>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="n">
-        <v>2153178.16</v>
-      </c>
+        <v>130115.03</v>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="5" t="inlineStr">
-        <is>
-          <t>August 21, 2024</t>
-        </is>
-      </c>
-      <c r="Q11" s="5" t="inlineStr">
-        <is>
-          <t>January 6, 2025</t>
-        </is>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>10336657</v>
-      </c>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>2023-88</t>
-        </is>
-      </c>
-      <c r="T11" s="5" t="inlineStr">
-        <is>
-          <t>November 20, 2023</t>
-        </is>
-      </c>
-      <c r="U11" s="5" t="inlineStr">
-        <is>
-          <t>November 28, 2023</t>
-        </is>
-      </c>
-      <c r="V11" s="5" t="inlineStr">
-        <is>
-          <t>December 11, 2023</t>
-        </is>
-      </c>
-      <c r="W11" s="5" t="inlineStr">
-        <is>
-          <t>December 12, 2023</t>
-        </is>
-      </c>
-      <c r="X11" s="5" t="inlineStr">
-        <is>
-          <t>May 21, 2024</t>
-        </is>
-      </c>
-      <c r="Y11" s="5" t="inlineStr">
-        <is>
-          <t>Quicksilver Construction</t>
-        </is>
-      </c>
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="R11" s="5" t="inlineStr"/>
+      <c r="S11" s="5" t="inlineStr"/>
+      <c r="T11" s="5" t="inlineStr"/>
+      <c r="U11" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="V11" s="7" t="n">
+        <v>44727</v>
+      </c>
+      <c r="W11" s="5" t="inlineStr"/>
+      <c r="X11" s="5" t="inlineStr"/>
+      <c r="Y11" s="5" t="inlineStr"/>
       <c r="Z11" s="5" t="inlineStr"/>
       <c r="AA11" s="6" t="n"/>
     </row>
@@ -1698,11 +1636,11 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>117929</v>
+        <v>117933</v>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>Alburquerque Central ES</t>
+          <t>Dangay ES</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
@@ -1775,11 +1713,11 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>117930</v>
+        <v>117934</v>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Bahi Primary School</t>
+          <t>Tagbuane ES</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
@@ -1852,11 +1790,11 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>117933</v>
+        <v>117935</v>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Dangay ES</t>
+          <t>Toril ES</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
@@ -1929,20 +1867,20 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>117934</v>
+        <v>117953</v>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>Tagbuane ES</t>
+          <t>Anda Central ES</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>Alburquerque</t>
+          <t>Anda</t>
         </is>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>1</v>
@@ -2006,20 +1944,20 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>117935</v>
+        <v>117954</v>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Toril ES</t>
+          <t>Bacong ES</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>Alburquerque</t>
+          <t>Anda</t>
         </is>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>1</v>
@@ -2083,11 +2021,11 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>117953</v>
+        <v>117955</v>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Anda Central ES</t>
+          <t>Badiang ES</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
@@ -2160,11 +2098,11 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>117954</v>
+        <v>117957</v>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Bacong ES</t>
+          <t>Candabong ES</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
@@ -2237,11 +2175,11 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>117955</v>
+        <v>117958</v>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Badiang ES</t>
+          <t>Casica PS</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
@@ -2314,11 +2252,11 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>117957</v>
+        <v>117961</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Candabong ES</t>
+          <t>Londag ES</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
@@ -2391,11 +2329,11 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>117958</v>
+        <v>117963</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Casica PS</t>
+          <t>Porcenas ES</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
@@ -2468,11 +2406,11 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>117961</v>
+        <v>117964</v>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Londag ES</t>
+          <t>Talisay ES</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
@@ -2545,11 +2483,11 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>117963</v>
+        <v>117966</v>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>Porcenas ES</t>
+          <t>Virgen ES</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
@@ -2622,11 +2560,11 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>117964</v>
+        <v>186509</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>Talisay ES</t>
+          <t>Suba PS</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
@@ -2699,11 +2637,11 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>117966</v>
+        <v>302812</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>Virgen ES</t>
+          <t>Badiang NHS</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
@@ -2776,11 +2714,11 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>186509</v>
+        <v>302829</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Suba PS</t>
+          <t>Candabong National High School</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
@@ -2853,16 +2791,16 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>302812</v>
+        <v>118012</v>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>Badiang NHS</t>
+          <t>Batuan Central ES</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>Anda</t>
+          <t>Batuan</t>
         </is>
       </c>
       <c r="G27" s="5" t="n">
@@ -2930,16 +2868,16 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>302829</v>
+        <v>118018</v>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>Candabong National High School</t>
+          <t>Cantigdas Elementary School</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>Anda</t>
+          <t>Batuan</t>
         </is>
       </c>
       <c r="G28" s="5" t="n">
@@ -3007,11 +2945,11 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>118012</v>
+        <v>118020</v>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>Batuan Central ES</t>
+          <t>Janlud ES</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
@@ -3084,11 +3022,11 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>118018</v>
+        <v>118025</v>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>Cantigdas Elementary School</t>
+          <t>Rosariohan ES</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
@@ -3161,11 +3099,11 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>118020</v>
+        <v>118026</v>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>Janlud ES</t>
+          <t>Sta. Cruz ES</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
@@ -3238,20 +3176,20 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>118025</v>
+        <v>118184</v>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>Rosariohan ES</t>
+          <t>Bacani ES</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>Batuan</t>
+          <t>Clarin</t>
         </is>
       </c>
       <c r="G32" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="5" t="n">
         <v>1</v>
@@ -3315,20 +3253,20 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>118026</v>
+        <v>118185</v>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>Sta. Cruz ES</t>
+          <t>Bogtongbod ES</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>Batuan</t>
+          <t>Clarin</t>
         </is>
       </c>
       <c r="G33" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="5" t="n">
         <v>1</v>
@@ -3392,11 +3330,11 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>118184</v>
+        <v>118186</v>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>Bacani ES</t>
+          <t>Bonbon Elementary School</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
@@ -3469,11 +3407,11 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>118185</v>
+        <v>118188</v>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>Bogtongbod ES</t>
+          <t>Buacao ES</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
@@ -3546,11 +3484,11 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>118186</v>
+        <v>118189</v>
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>Bonbon Elementary School</t>
+          <t>Buangan ES</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
@@ -3623,11 +3561,11 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>118188</v>
+        <v>118190</v>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>Buacao ES</t>
+          <t>Cabog ES</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
@@ -3700,11 +3638,11 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>118189</v>
+        <v>118191</v>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>Buangan ES</t>
+          <t>Caboy ES</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
@@ -3777,11 +3715,11 @@
         </is>
       </c>
       <c r="D39" s="5" t="n">
-        <v>118190</v>
+        <v>118192</v>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>Cabog ES</t>
+          <t>Cantoyoc PS</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
@@ -3854,11 +3792,11 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>118191</v>
+        <v>118193</v>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>Caboy ES</t>
+          <t>Clarin Central ES</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
@@ -3931,11 +3869,11 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>118192</v>
+        <v>118195</v>
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>Cantoyoc PS</t>
+          <t>Lajog ES</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
@@ -4008,11 +3946,11 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>118193</v>
+        <v>118197</v>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>Clarin Central ES</t>
+          <t>Nahawan ES</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
@@ -4085,20 +4023,20 @@
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>118195</v>
+        <v>118201</v>
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>Lajog ES</t>
+          <t>Canapnapan PS</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
         <is>
-          <t>Clarin</t>
+          <t>Corella</t>
         </is>
       </c>
       <c r="G43" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="5" t="n">
         <v>1</v>
@@ -4162,20 +4100,20 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>118197</v>
+        <v>118202</v>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>Nahawan ES</t>
+          <t>Cancatac ES</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
         <is>
-          <t>Clarin</t>
+          <t>Corella</t>
         </is>
       </c>
       <c r="G44" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="5" t="n">
         <v>1</v>
@@ -4239,11 +4177,11 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>118201</v>
+        <v>118203</v>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>Canapnapan PS</t>
+          <t>Corella Central ES</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
@@ -4316,11 +4254,11 @@
         </is>
       </c>
       <c r="D46" s="5" t="n">
-        <v>118202</v>
+        <v>118204</v>
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>Cancatac ES</t>
+          <t>Sambog ES</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
@@ -4393,11 +4331,11 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>118203</v>
+        <v>118205</v>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>Corella Central ES</t>
+          <t>Tanday ES</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
@@ -4470,11 +4408,11 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>118204</v>
+        <v>186510</v>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>Sambog ES</t>
+          <t>Pandol Primary School</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
@@ -4547,11 +4485,11 @@
         </is>
       </c>
       <c r="D49" s="5" t="n">
-        <v>118205</v>
+        <v>500212</v>
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>Tanday ES</t>
+          <t>Canangcaan Integrated School</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
@@ -4624,16 +4562,16 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>186510</v>
+        <v>118206</v>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>Pandol Primary School</t>
+          <t>Cortes Central ES</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
         <is>
-          <t>Corella</t>
+          <t>Cortes</t>
         </is>
       </c>
       <c r="G50" s="5" t="n">
@@ -4701,16 +4639,16 @@
         </is>
       </c>
       <c r="D51" s="5" t="n">
-        <v>500212</v>
+        <v>118207</v>
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>Canangcaan Integrated School</t>
+          <t>Dela Paz ES</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
         <is>
-          <t>Corella</t>
+          <t>Cortes</t>
         </is>
       </c>
       <c r="G51" s="5" t="n">
@@ -4778,11 +4716,11 @@
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>118206</v>
+        <v>118208</v>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>Cortes Central ES</t>
+          <t>Fatima ES</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
@@ -4855,11 +4793,11 @@
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>118207</v>
+        <v>118209</v>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>Dela Paz ES</t>
+          <t>Loreto ES</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
@@ -4932,11 +4870,11 @@
         </is>
       </c>
       <c r="D54" s="5" t="n">
-        <v>118208</v>
+        <v>118210</v>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>Fatima ES</t>
+          <t>Lourdes ES</t>
         </is>
       </c>
       <c r="F54" s="5" t="inlineStr">
@@ -5009,11 +4947,11 @@
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>118209</v>
+        <v>118211</v>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>Loreto ES</t>
+          <t>Malayo ES</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
@@ -5086,11 +5024,11 @@
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>118210</v>
+        <v>118216</v>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>Lourdes ES</t>
+          <t>San Roque ES</t>
         </is>
       </c>
       <c r="F56" s="5" t="inlineStr">
@@ -5163,20 +5101,20 @@
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>118211</v>
+        <v>118218</v>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>Malayo ES</t>
+          <t>Babag ES</t>
         </is>
       </c>
       <c r="F57" s="5" t="inlineStr">
         <is>
-          <t>Cortes</t>
+          <t>Dagohoy</t>
         </is>
       </c>
       <c r="G57" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" s="5" t="n">
         <v>1</v>
@@ -5240,20 +5178,20 @@
         </is>
       </c>
       <c r="D58" s="5" t="n">
-        <v>118216</v>
+        <v>118219</v>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>San Roque ES</t>
+          <t>Cagawasan ES</t>
         </is>
       </c>
       <c r="F58" s="5" t="inlineStr">
         <is>
-          <t>Cortes</t>
+          <t>Dagohoy</t>
         </is>
       </c>
       <c r="G58" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="5" t="n">
         <v>1</v>
@@ -5317,11 +5255,11 @@
         </is>
       </c>
       <c r="D59" s="5" t="n">
-        <v>118218</v>
+        <v>118220</v>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>Babag ES</t>
+          <t>Caluasan ES</t>
         </is>
       </c>
       <c r="F59" s="5" t="inlineStr">
@@ -5394,11 +5332,11 @@
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>118219</v>
+        <v>118221</v>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>Cagawasan ES</t>
+          <t>Candelaria ES</t>
         </is>
       </c>
       <c r="F60" s="5" t="inlineStr">
@@ -5471,11 +5409,11 @@
         </is>
       </c>
       <c r="D61" s="5" t="n">
-        <v>118220</v>
+        <v>118222</v>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>Caluasan ES</t>
+          <t>Can-oling ES</t>
         </is>
       </c>
       <c r="F61" s="5" t="inlineStr">
@@ -5548,11 +5486,11 @@
         </is>
       </c>
       <c r="D62" s="5" t="n">
-        <v>118221</v>
+        <v>118223</v>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>Candelaria ES</t>
+          <t>Dagohoy Central Elementary</t>
         </is>
       </c>
       <c r="F62" s="5" t="inlineStr">
@@ -5625,11 +5563,11 @@
         </is>
       </c>
       <c r="D63" s="5" t="n">
-        <v>118222</v>
+        <v>118227</v>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>Can-oling ES</t>
+          <t>Mahayag Elementary School</t>
         </is>
       </c>
       <c r="F63" s="5" t="inlineStr">
@@ -5702,11 +5640,11 @@
         </is>
       </c>
       <c r="D64" s="5" t="n">
-        <v>118223</v>
+        <v>118228</v>
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>Dagohoy Central Elementary</t>
+          <t>Malitbog Elementary School</t>
         </is>
       </c>
       <c r="F64" s="5" t="inlineStr">
@@ -5779,16 +5717,16 @@
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>118227</v>
+        <v>118630</v>
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>Mahayag Elementary School</t>
+          <t>Abehilan ES</t>
         </is>
       </c>
       <c r="F65" s="5" t="inlineStr">
         <is>
-          <t>Dagohoy</t>
+          <t>San Isidro</t>
         </is>
       </c>
       <c r="G65" s="5" t="n">
@@ -5856,16 +5794,16 @@
         </is>
       </c>
       <c r="D66" s="5" t="n">
-        <v>118228</v>
+        <v>118634</v>
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>Malitbog Elementary School</t>
+          <t>Caimbang ES</t>
         </is>
       </c>
       <c r="F66" s="5" t="inlineStr">
         <is>
-          <t>Dagohoy</t>
+          <t>San Isidro</t>
         </is>
       </c>
       <c r="G66" s="5" t="n">
@@ -5933,11 +5871,11 @@
         </is>
       </c>
       <c r="D67" s="5" t="n">
-        <v>118630</v>
+        <v>118635</v>
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>Abehilan ES</t>
+          <t>Cambansag Elementary</t>
         </is>
       </c>
       <c r="F67" s="5" t="inlineStr">
@@ -6010,11 +5948,11 @@
         </is>
       </c>
       <c r="D68" s="5" t="n">
-        <v>118634</v>
+        <v>118636</v>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>Caimbang ES</t>
+          <t>Candungao ES</t>
         </is>
       </c>
       <c r="F68" s="5" t="inlineStr">
@@ -6087,11 +6025,11 @@
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>118635</v>
+        <v>118638</v>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>Cambansag Elementary</t>
+          <t>Cansague Sur ES</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
@@ -6164,11 +6102,11 @@
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>118636</v>
+        <v>118641</v>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>Candungao ES</t>
+          <t>San Isidro Central ES</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
@@ -6241,11 +6179,11 @@
         </is>
       </c>
       <c r="D71" s="5" t="n">
-        <v>118638</v>
+        <v>312327</v>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>Cansague Sur ES</t>
+          <t>Candungao High School</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
@@ -6318,20 +6256,20 @@
         </is>
       </c>
       <c r="D72" s="5" t="n">
-        <v>118641</v>
+        <v>118660</v>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>San Isidro Central ES</t>
+          <t>Bayawahan ES</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
         <is>
-          <t>San Isidro</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="G72" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72" s="5" t="n">
         <v>1</v>
@@ -6395,20 +6333,20 @@
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>312327</v>
+        <v>118663</v>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>Candungao High School</t>
+          <t>Calinginan Norte Elementary School</t>
         </is>
       </c>
       <c r="F73" s="5" t="inlineStr">
         <is>
-          <t>San Isidro</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="G73" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73" s="5" t="n">
         <v>1</v>
@@ -6472,11 +6410,11 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>118660</v>
+        <v>118665</v>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>Bayawahan ES</t>
+          <t>Cambagui ES</t>
         </is>
       </c>
       <c r="F74" s="5" t="inlineStr">
@@ -6549,11 +6487,11 @@
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>118663</v>
+        <v>118668</v>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>Calinginan Norte Elementary School</t>
+          <t>Lagtangan ES</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
@@ -6626,11 +6564,11 @@
         </is>
       </c>
       <c r="D76" s="5" t="n">
-        <v>118665</v>
+        <v>118671</v>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>Cambagui ES</t>
+          <t>Magsaysay ES</t>
         </is>
       </c>
       <c r="F76" s="5" t="inlineStr">
@@ -6703,11 +6641,11 @@
         </is>
       </c>
       <c r="D77" s="5" t="n">
-        <v>118668</v>
+        <v>118672</v>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>Lagtangan ES</t>
+          <t>Sevilla Central ES</t>
         </is>
       </c>
       <c r="F77" s="5" t="inlineStr">
@@ -6780,11 +6718,11 @@
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>118671</v>
+        <v>302903</v>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>Magsaysay ES</t>
+          <t>Sevilla National High School</t>
         </is>
       </c>
       <c r="F78" s="5" t="inlineStr">
@@ -6857,11 +6795,11 @@
         </is>
       </c>
       <c r="D79" s="5" t="n">
-        <v>118672</v>
+        <v>302904</v>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>Sevilla Central ES</t>
+          <t>Cambagui-Calinginan Norte National  HS</t>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
@@ -6934,11 +6872,11 @@
         </is>
       </c>
       <c r="D80" s="5" t="n">
-        <v>302903</v>
+        <v>312310</v>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>Sevilla National High School</t>
+          <t>Bayawahan National High School</t>
         </is>
       </c>
       <c r="F80" s="5" t="inlineStr">
@@ -7011,20 +6949,20 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>302904</v>
+        <v>118699</v>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>Cambagui-Calinginan Norte National  HS</t>
+          <t>Cambuac Sur ES</t>
         </is>
       </c>
       <c r="F81" s="5" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Sikatuna</t>
         </is>
       </c>
       <c r="G81" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81" s="5" t="n">
         <v>1</v>
@@ -7088,20 +7026,20 @@
         </is>
       </c>
       <c r="D82" s="5" t="n">
-        <v>312310</v>
+        <v>118700</v>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>Bayawahan National High School</t>
+          <t>Sikatuna Central ES</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Sikatuna</t>
         </is>
       </c>
       <c r="G82" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82" s="5" t="n">
         <v>1</v>
@@ -7161,67 +7099,95 @@
       </c>
       <c r="C83" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>118699</v>
+        <v>118866</v>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>Cambuac Sur ES</t>
+          <t>Alcantara Central ES</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">
         <is>
-          <t>Sikatuna</t>
+          <t>ALCANTARA</t>
         </is>
       </c>
       <c r="G83" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I83" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K83" s="5" t="n">
-        <v>130115.03</v>
+        <v>439726</v>
       </c>
       <c r="L83" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
+          <t>BATCH 2</t>
         </is>
       </c>
       <c r="M83" s="5" t="inlineStr"/>
       <c r="N83" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O83" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P83" s="5" t="inlineStr"/>
+      <c r="P83" s="7" t="n">
+        <v>45028</v>
+      </c>
       <c r="Q83" s="5" t="inlineStr"/>
-      <c r="R83" s="5" t="inlineStr"/>
-      <c r="S83" s="5" t="inlineStr"/>
-      <c r="T83" s="5" t="inlineStr"/>
-      <c r="U83" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="V83" s="7" t="n">
-        <v>44727</v>
-      </c>
-      <c r="W83" s="5" t="inlineStr"/>
-      <c r="X83" s="5" t="inlineStr"/>
-      <c r="Y83" s="5" t="inlineStr"/>
+      <c r="R83" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
+      <c r="S83" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
+      <c r="T83" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U83" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V83" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W83" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
+      </c>
+      <c r="X83" s="7" t="n">
+        <v>44931</v>
+      </c>
+      <c r="Y83" s="5" t="inlineStr">
+        <is>
+          <t>Ten twenty allied developers</t>
+        </is>
+      </c>
       <c r="Z83" s="5" t="inlineStr"/>
       <c r="AA83" s="6" t="n"/>
     </row>
@@ -7238,67 +7204,95 @@
       </c>
       <c r="C84" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D84" s="5" t="n">
-        <v>118700</v>
+        <v>118868</v>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>Sikatuna Central ES</t>
+          <t>Candabong ES</t>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
         <is>
-          <t>Sikatuna</t>
+          <t>ALCANTARA</t>
         </is>
       </c>
       <c r="G84" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I84" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K84" s="5" t="n">
-        <v>130115.03</v>
+        <v>439726</v>
       </c>
       <c r="L84" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
+          <t>BATCH 2</t>
         </is>
       </c>
       <c r="M84" s="5" t="inlineStr"/>
       <c r="N84" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O84" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P84" s="5" t="inlineStr"/>
+      <c r="P84" s="7" t="n">
+        <v>45028</v>
+      </c>
       <c r="Q84" s="5" t="inlineStr"/>
-      <c r="R84" s="5" t="inlineStr"/>
-      <c r="S84" s="5" t="inlineStr"/>
-      <c r="T84" s="5" t="inlineStr"/>
-      <c r="U84" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="V84" s="7" t="n">
-        <v>44727</v>
-      </c>
-      <c r="W84" s="5" t="inlineStr"/>
-      <c r="X84" s="5" t="inlineStr"/>
-      <c r="Y84" s="5" t="inlineStr"/>
+      <c r="R84" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
+      <c r="S84" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
+      <c r="T84" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U84" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V84" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W84" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
+      </c>
+      <c r="X84" s="7" t="n">
+        <v>44931</v>
+      </c>
+      <c r="Y84" s="5" t="inlineStr">
+        <is>
+          <t>Ten twenty allied developers</t>
+        </is>
+      </c>
       <c r="Z84" s="5" t="inlineStr"/>
       <c r="AA84" s="6" t="n"/>
     </row>
@@ -7315,20 +7309,20 @@
       </c>
       <c r="C85" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D85" s="5" t="n">
-        <v>120431</v>
+        <v>187004</v>
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>Jose R. Remollo ES (Cambaloctot ES)</t>
+          <t>Palanas ES</t>
         </is>
       </c>
       <c r="F85" s="5" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>ALCANTARA</t>
         </is>
       </c>
       <c r="G85" s="5" t="n">
@@ -7342,58 +7336,66 @@
       </c>
       <c r="J85" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K85" s="5" t="n">
-        <v>193423.04</v>
+        <v>219863</v>
       </c>
       <c r="L85" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M85" s="5" t="n">
-        <v>192459.09</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M85" s="5" t="inlineStr"/>
       <c r="N85" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O85" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>44895</v>
+        <v>45028</v>
       </c>
       <c r="Q85" s="5" t="inlineStr"/>
-      <c r="R85" s="5" t="inlineStr"/>
-      <c r="S85" s="5" t="inlineStr"/>
+      <c r="R85" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
+      <c r="S85" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
       <c r="T85" s="5" t="inlineStr">
         <is>
-          <t>03/28/22; 07/04/22</t>
+          <t>October 14, 2022</t>
         </is>
       </c>
       <c r="U85" s="5" t="inlineStr">
         <is>
-          <t>04/6/22; 07/12/22</t>
+          <t>October 24, 2022</t>
         </is>
       </c>
       <c r="V85" s="5" t="inlineStr">
         <is>
-          <t>4/18/22; 07/25/22</t>
-        </is>
-      </c>
-      <c r="W85" s="7" t="n">
-        <v>44782</v>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W85" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X85" s="7" t="n">
-        <v>44855</v>
+        <v>44931</v>
       </c>
       <c r="Y85" s="5" t="inlineStr">
         <is>
-          <t>Sagittarius Construction</t>
+          <t>Ten twenty allied developers</t>
         </is>
       </c>
       <c r="Z85" s="5" t="inlineStr"/>
@@ -7412,20 +7414,20 @@
       </c>
       <c r="C86" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D86" s="5" t="n">
-        <v>120438</v>
+        <v>302922</v>
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>Siapo Elementary School</t>
+          <t>Alcantara NHS</t>
         </is>
       </c>
       <c r="F86" s="5" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>ALCANTARA</t>
         </is>
       </c>
       <c r="G86" s="5" t="n">
@@ -7435,62 +7437,70 @@
         <v>1</v>
       </c>
       <c r="I86" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH PAINTED CEMENT FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K86" s="5" t="n">
-        <v>79744.75</v>
+        <v>657930</v>
       </c>
       <c r="L86" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M86" s="5" t="n">
-        <v>78628.58</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M86" s="5" t="inlineStr"/>
       <c r="N86" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O86" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>44895</v>
+        <v>45028</v>
       </c>
       <c r="Q86" s="5" t="inlineStr"/>
-      <c r="R86" s="5" t="inlineStr"/>
-      <c r="S86" s="5" t="inlineStr"/>
+      <c r="R86" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
+      <c r="S86" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
       <c r="T86" s="5" t="inlineStr">
         <is>
-          <t>03/28/22; 07/04/22</t>
+          <t>October 14, 2022</t>
         </is>
       </c>
       <c r="U86" s="5" t="inlineStr">
         <is>
-          <t>04/6/22; 07/12/22</t>
+          <t>October 24, 2022</t>
         </is>
       </c>
       <c r="V86" s="5" t="inlineStr">
         <is>
-          <t>4/18/22; 07/25/22</t>
-        </is>
-      </c>
-      <c r="W86" s="7" t="n">
-        <v>44782</v>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W86" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X86" s="7" t="n">
-        <v>44855</v>
+        <v>44931</v>
       </c>
       <c r="Y86" s="5" t="inlineStr">
         <is>
-          <t>Sagittarius Construction</t>
+          <t>Ten twenty allied developers</t>
         </is>
       </c>
       <c r="Z86" s="5" t="inlineStr"/>
@@ -7509,47 +7519,43 @@
       </c>
       <c r="C87" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D87" s="5" t="n">
-        <v>303278</v>
+        <v>302922</v>
       </c>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>Crisostomo O. Retes National High School</t>
+          <t>Alcantara NHS</t>
         </is>
       </c>
       <c r="F87" s="5" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>ALCANTARA</t>
         </is>
       </c>
       <c r="G87" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H87" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H87" s="5" t="inlineStr"/>
       <c r="I87" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J87" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF THREE (3) UNITS GROUP HANDWASHING FACILITY - FOR SECONDARY - (OPTION 2B - WITHOUT ROOFING, WITH COUNTER WITH PAINTED CEMENT FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
       <c r="K87" s="5" t="n">
-        <v>218188.87</v>
+        <v>2558274.37</v>
       </c>
       <c r="L87" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M87" s="5" t="n">
-        <v>217530.71</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M87" s="5" t="inlineStr"/>
       <c r="N87" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7559,35 +7565,45 @@
         <v>1</v>
       </c>
       <c r="P87" s="7" t="n">
-        <v>44910</v>
+        <v>45028</v>
       </c>
       <c r="Q87" s="5" t="inlineStr"/>
-      <c r="R87" s="5" t="inlineStr"/>
-      <c r="S87" s="5" t="inlineStr"/>
+      <c r="R87" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
+      <c r="S87" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
       <c r="T87" s="5" t="inlineStr">
         <is>
-          <t>03/28/22; 07/04/22</t>
+          <t>October 14, 2022</t>
         </is>
       </c>
       <c r="U87" s="5" t="inlineStr">
         <is>
-          <t>04/6/22; 07/12/22</t>
+          <t>October 24, 2022</t>
         </is>
       </c>
       <c r="V87" s="5" t="inlineStr">
         <is>
-          <t>4/18/22; 07/25/22</t>
-        </is>
-      </c>
-      <c r="W87" s="7" t="n">
-        <v>44782</v>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W87" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X87" s="7" t="n">
-        <v>44855</v>
+        <v>44931</v>
       </c>
       <c r="Y87" s="5" t="inlineStr">
         <is>
-          <t>Sagittarius Construction</t>
+          <t>Ten twenty allied developers</t>
         </is>
       </c>
       <c r="Z87" s="5" t="inlineStr"/>
@@ -7606,24 +7622,24 @@
       </c>
       <c r="C88" s="5" t="inlineStr">
         <is>
-          <t>Siquijor</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>120658</v>
+        <v>500649</v>
       </c>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>Enrique Villanueva Central Elementary School</t>
+          <t>Cabadiangan Integrated School</t>
         </is>
       </c>
       <c r="F88" s="5" t="inlineStr">
         <is>
-          <t>Larena</t>
+          <t>ALCANTARA</t>
         </is>
       </c>
       <c r="G88" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88" s="5" t="n">
         <v>1</v>
@@ -7633,52 +7649,66 @@
       </c>
       <c r="J88" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH PAINTED CEMENT FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 2A - WITH WATER CONTAINER, WITHOUT ROOFING)</t>
         </is>
       </c>
       <c r="K88" s="5" t="n">
-        <v>94981.36</v>
+        <v>89547.33</v>
       </c>
       <c r="L88" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M88" s="5" t="n">
-        <v>94714.17</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M88" s="5" t="inlineStr"/>
       <c r="N88" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O88" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>44865</v>
+        <v>45028</v>
       </c>
       <c r="Q88" s="5" t="inlineStr"/>
-      <c r="R88" s="5" t="inlineStr"/>
-      <c r="S88" s="5" t="inlineStr"/>
-      <c r="T88" s="7" t="n">
-        <v>44649</v>
-      </c>
-      <c r="U88" s="7" t="n">
-        <v>44656</v>
-      </c>
-      <c r="V88" s="7" t="n">
-        <v>44669</v>
-      </c>
-      <c r="W88" s="7" t="n">
-        <v>44672</v>
+      <c r="R88" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
+      <c r="S88" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
+      <c r="T88" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U88" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V88" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W88" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X88" s="7" t="n">
-        <v>44740</v>
+        <v>44931</v>
       </c>
       <c r="Y88" s="5" t="inlineStr">
         <is>
-          <t>E.D. Angas Construction</t>
+          <t>Ten twenty allied developers</t>
         </is>
       </c>
       <c r="Z88" s="5" t="inlineStr"/>
@@ -7697,24 +7727,24 @@
       </c>
       <c r="C89" s="5" t="inlineStr">
         <is>
-          <t>Siquijor</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D89" s="5" t="n">
-        <v>303303</v>
+        <v>302918</v>
       </c>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>BASAC NATIONAL HIGH SCHOOL</t>
+          <t>Nug-as NHS</t>
         </is>
       </c>
       <c r="F89" s="5" t="inlineStr">
         <is>
-          <t>Larena</t>
+          <t>ALCOY</t>
         </is>
       </c>
       <c r="G89" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" s="5" t="n">
         <v>1</v>
@@ -7724,52 +7754,66 @@
       </c>
       <c r="J89" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH PAINTED CEMENT FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K89" s="5" t="n">
-        <v>94981.36</v>
+        <v>219310</v>
       </c>
       <c r="L89" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M89" s="5" t="n">
-        <v>94714.17</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M89" s="5" t="inlineStr"/>
       <c r="N89" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O89" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P89" s="7" t="n">
-        <v>44865</v>
+        <v>44998</v>
       </c>
       <c r="Q89" s="5" t="inlineStr"/>
-      <c r="R89" s="5" t="inlineStr"/>
-      <c r="S89" s="5" t="inlineStr"/>
-      <c r="T89" s="7" t="n">
-        <v>44649</v>
-      </c>
-      <c r="U89" s="7" t="n">
-        <v>44656</v>
-      </c>
-      <c r="V89" s="7" t="n">
-        <v>44669</v>
-      </c>
-      <c r="W89" s="7" t="n">
-        <v>44672</v>
+      <c r="R89" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+        </is>
+      </c>
+      <c r="S89" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+        </is>
+      </c>
+      <c r="T89" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U89" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V89" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W89" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X89" s="7" t="n">
-        <v>44740</v>
+        <v>44931</v>
       </c>
       <c r="Y89" s="5" t="inlineStr">
         <is>
-          <t>E.D. Angas Construction</t>
+          <t>GCATZ Construction</t>
         </is>
       </c>
       <c r="Z89" s="5" t="inlineStr"/>
@@ -7788,24 +7832,24 @@
       </c>
       <c r="C90" s="5" t="inlineStr">
         <is>
-          <t>Siquijor</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D90" s="5" t="n">
-        <v>501427</v>
+        <v>500650</v>
       </c>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>Larena Integrated School</t>
+          <t>Pasol-Pugalo IS</t>
         </is>
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>Larena</t>
+          <t>ALCOY</t>
         </is>
       </c>
       <c r="G90" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90" s="5" t="n">
         <v>1</v>
@@ -7815,52 +7859,66 @@
       </c>
       <c r="J90" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH PAINTED CEMENT FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K90" s="5" t="n">
-        <v>184826.54</v>
+        <v>219863</v>
       </c>
       <c r="L90" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M90" s="5" t="n">
-        <v>176198.13</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M90" s="5" t="inlineStr"/>
       <c r="N90" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O90" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P90" s="7" t="n">
-        <v>44865</v>
+        <v>44998</v>
       </c>
       <c r="Q90" s="5" t="inlineStr"/>
-      <c r="R90" s="5" t="inlineStr"/>
-      <c r="S90" s="5" t="inlineStr"/>
-      <c r="T90" s="7" t="n">
-        <v>44649</v>
-      </c>
-      <c r="U90" s="7" t="n">
-        <v>44656</v>
-      </c>
-      <c r="V90" s="7" t="n">
-        <v>44669</v>
-      </c>
-      <c r="W90" s="7" t="n">
-        <v>44672</v>
+      <c r="R90" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+        </is>
+      </c>
+      <c r="S90" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+        </is>
+      </c>
+      <c r="T90" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U90" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V90" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W90" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X90" s="7" t="n">
-        <v>44740</v>
+        <v>44931</v>
       </c>
       <c r="Y90" s="5" t="inlineStr">
         <is>
-          <t>E.D. Angas Construction</t>
+          <t>GCATZ Construction</t>
         </is>
       </c>
       <c r="Z90" s="5" t="inlineStr"/>
@@ -7879,24 +7937,24 @@
       </c>
       <c r="C91" s="5" t="inlineStr">
         <is>
-          <t>Siquijor</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D91" s="5" t="n">
-        <v>120669</v>
+        <v>119132</v>
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>Candaping Elementary School</t>
+          <t>Lunop ES</t>
         </is>
       </c>
       <c r="F91" s="5" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>BOLJOON</t>
         </is>
       </c>
       <c r="G91" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" s="5" t="n">
         <v>1</v>
@@ -7906,52 +7964,66 @@
       </c>
       <c r="J91" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH PAINTED CEMENT FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K91" s="5" t="n">
-        <v>94981.36</v>
+        <v>219863</v>
       </c>
       <c r="L91" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M91" s="5" t="n">
-        <v>94714.17</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M91" s="5" t="inlineStr"/>
       <c r="N91" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O91" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>44865</v>
+        <v>44998</v>
       </c>
       <c r="Q91" s="5" t="inlineStr"/>
-      <c r="R91" s="5" t="inlineStr"/>
-      <c r="S91" s="5" t="inlineStr"/>
-      <c r="T91" s="7" t="n">
-        <v>44649</v>
-      </c>
-      <c r="U91" s="7" t="n">
-        <v>44656</v>
-      </c>
-      <c r="V91" s="7" t="n">
-        <v>44669</v>
-      </c>
-      <c r="W91" s="7" t="n">
-        <v>44672</v>
+      <c r="R91" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+        </is>
+      </c>
+      <c r="S91" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+        </is>
+      </c>
+      <c r="T91" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U91" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V91" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W91" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X91" s="7" t="n">
-        <v>44740</v>
+        <v>44931</v>
       </c>
       <c r="Y91" s="5" t="inlineStr">
         <is>
-          <t>E.D. Angas Construction</t>
+          <t>GCATZ Construction</t>
         </is>
       </c>
       <c r="Z91" s="5" t="inlineStr"/>
@@ -7970,24 +8042,24 @@
       </c>
       <c r="C92" s="5" t="inlineStr">
         <is>
-          <t>Siquijor</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D92" s="5" t="n">
-        <v>303304</v>
+        <v>302944</v>
       </c>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>Candaping National High School</t>
+          <t>Lunop NHS</t>
         </is>
       </c>
       <c r="F92" s="5" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>BOLJOON</t>
         </is>
       </c>
       <c r="G92" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" s="5" t="n">
         <v>1</v>
@@ -7997,52 +8069,66 @@
       </c>
       <c r="J92" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH PAINTED CEMENT FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K92" s="5" t="n">
-        <v>94981.36</v>
+        <v>219310</v>
       </c>
       <c r="L92" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M92" s="5" t="n">
-        <v>94714.17</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M92" s="5" t="inlineStr"/>
       <c r="N92" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O92" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>44865</v>
+        <v>44998</v>
       </c>
       <c r="Q92" s="5" t="inlineStr"/>
-      <c r="R92" s="5" t="inlineStr"/>
-      <c r="S92" s="5" t="inlineStr"/>
-      <c r="T92" s="7" t="n">
-        <v>44649</v>
-      </c>
-      <c r="U92" s="7" t="n">
-        <v>44656</v>
-      </c>
-      <c r="V92" s="7" t="n">
-        <v>44669</v>
-      </c>
-      <c r="W92" s="7" t="n">
-        <v>44672</v>
+      <c r="R92" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+        </is>
+      </c>
+      <c r="S92" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+        </is>
+      </c>
+      <c r="T92" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U92" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V92" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W92" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X92" s="7" t="n">
-        <v>44740</v>
+        <v>44931</v>
       </c>
       <c r="Y92" s="5" t="inlineStr">
         <is>
-          <t>E.D. Angas Construction</t>
+          <t>GCATZ Construction</t>
         </is>
       </c>
       <c r="Z92" s="5" t="inlineStr"/>
@@ -8061,24 +8147,24 @@
       </c>
       <c r="C93" s="5" t="inlineStr">
         <is>
-          <t>Siquijor</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D93" s="5" t="n">
-        <v>501429</v>
+        <v>119404</v>
       </c>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>Maria Integrated School</t>
+          <t>Kabatuan ES</t>
         </is>
       </c>
       <c r="F93" s="5" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>GINATILAN</t>
         </is>
       </c>
       <c r="G93" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" s="5" t="n">
         <v>1</v>
@@ -8088,52 +8174,66 @@
       </c>
       <c r="J93" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH PAINTED CEMENT FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K93" s="5" t="n">
-        <v>94981.36</v>
+        <v>219863</v>
       </c>
       <c r="L93" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M93" s="5" t="n">
-        <v>94714.17</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M93" s="5" t="inlineStr"/>
       <c r="N93" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O93" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>44865</v>
+        <v>45028</v>
       </c>
       <c r="Q93" s="5" t="inlineStr"/>
-      <c r="R93" s="5" t="inlineStr"/>
-      <c r="S93" s="5" t="inlineStr"/>
-      <c r="T93" s="7" t="n">
-        <v>44649</v>
-      </c>
-      <c r="U93" s="7" t="n">
-        <v>44656</v>
-      </c>
-      <c r="V93" s="7" t="n">
-        <v>44669</v>
-      </c>
-      <c r="W93" s="7" t="n">
-        <v>44672</v>
+      <c r="R93" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+        </is>
+      </c>
+      <c r="S93" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+        </is>
+      </c>
+      <c r="T93" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U93" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V93" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W93" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X93" s="7" t="n">
-        <v>44740</v>
+        <v>44931</v>
       </c>
       <c r="Y93" s="5" t="inlineStr">
         <is>
-          <t>E.D. Angas Construction</t>
+          <t>Ten twenty allied Developers</t>
         </is>
       </c>
       <c r="Z93" s="5" t="inlineStr"/>
@@ -8152,79 +8252,93 @@
       </c>
       <c r="C94" s="5" t="inlineStr">
         <is>
-          <t>Siquijor</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D94" s="5" t="n">
-        <v>120699</v>
+        <v>500894</v>
       </c>
       <c r="E94" s="5" t="inlineStr">
         <is>
-          <t>Catulayan Elementary School</t>
+          <t>Ginatilan Integrated School</t>
         </is>
       </c>
       <c r="F94" s="5" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>GINATILAN</t>
         </is>
       </c>
       <c r="G94" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I94" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH PAINTED CEMENT FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K94" s="5" t="n">
-        <v>94981.36</v>
+        <v>289269.18</v>
       </c>
       <c r="L94" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M94" s="5" t="n">
-        <v>94714.17</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M94" s="5" t="inlineStr"/>
       <c r="N94" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O94" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>44865</v>
+        <v>45028</v>
       </c>
       <c r="Q94" s="5" t="inlineStr"/>
-      <c r="R94" s="5" t="inlineStr"/>
-      <c r="S94" s="5" t="inlineStr"/>
-      <c r="T94" s="7" t="n">
-        <v>44649</v>
-      </c>
-      <c r="U94" s="7" t="n">
-        <v>44656</v>
-      </c>
-      <c r="V94" s="7" t="n">
-        <v>44669</v>
-      </c>
-      <c r="W94" s="7" t="n">
-        <v>44672</v>
+      <c r="R94" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+        </is>
+      </c>
+      <c r="S94" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+        </is>
+      </c>
+      <c r="T94" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U94" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V94" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W94" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X94" s="7" t="n">
-        <v>44740</v>
+        <v>44931</v>
       </c>
       <c r="Y94" s="5" t="inlineStr">
         <is>
-          <t>E.D. Angas Construction</t>
+          <t>Ten twenty allied Developers</t>
         </is>
       </c>
       <c r="Z94" s="5" t="inlineStr"/>
@@ -8243,79 +8357,91 @@
       </c>
       <c r="C95" s="5" t="inlineStr">
         <is>
-          <t>Siquijor</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D95" s="5" t="n">
-        <v>303300</v>
+        <v>500894</v>
       </c>
       <c r="E95" s="5" t="inlineStr">
         <is>
-          <t>Tambisan National High School</t>
+          <t>Ginatilan Integrated School</t>
         </is>
       </c>
       <c r="F95" s="5" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>GINATILAN</t>
         </is>
       </c>
       <c r="G95" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" s="5" t="inlineStr"/>
       <c r="I95" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J95" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH PAINTED CEMENT FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
         </is>
       </c>
       <c r="K95" s="5" t="n">
-        <v>184826.54</v>
+        <v>1325497.29</v>
       </c>
       <c r="L95" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M95" s="5" t="n">
-        <v>176198.13</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M95" s="5" t="inlineStr"/>
       <c r="N95" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O95" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>44865</v>
+        <v>45028</v>
       </c>
       <c r="Q95" s="5" t="inlineStr"/>
-      <c r="R95" s="5" t="inlineStr"/>
-      <c r="S95" s="5" t="inlineStr"/>
-      <c r="T95" s="7" t="n">
-        <v>44649</v>
-      </c>
-      <c r="U95" s="7" t="n">
-        <v>44656</v>
-      </c>
-      <c r="V95" s="7" t="n">
-        <v>44669</v>
-      </c>
-      <c r="W95" s="7" t="n">
-        <v>44672</v>
+      <c r="R95" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+        </is>
+      </c>
+      <c r="S95" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+        </is>
+      </c>
+      <c r="T95" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U95" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V95" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W95" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X95" s="7" t="n">
-        <v>44740</v>
+        <v>44931</v>
       </c>
       <c r="Y95" s="5" t="inlineStr">
         <is>
-          <t>E.D. Angas Construction</t>
+          <t>Ten twenty allied Developers</t>
         </is>
       </c>
       <c r="Z95" s="5" t="inlineStr"/>
@@ -8334,79 +8460,93 @@
       </c>
       <c r="C96" s="5" t="inlineStr">
         <is>
-          <t>Siquijor</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D96" s="5" t="n">
-        <v>303305</v>
+        <v>119445</v>
       </c>
       <c r="E96" s="5" t="inlineStr">
         <is>
-          <t>Catulayan National High School</t>
+          <t>Malabuyoc Central ES</t>
         </is>
       </c>
       <c r="F96" s="5" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>MALABUYOC</t>
         </is>
       </c>
       <c r="G96" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I96" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J96" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH PAINTED CEMENT FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF THREE (3) UNITS GROUP HANDWASHING FACILITY OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH &amp; ONE UNIT OPTION 1A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH</t>
         </is>
       </c>
       <c r="K96" s="5" t="n">
-        <v>94981.36</v>
+        <v>576528.38</v>
       </c>
       <c r="L96" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M96" s="5" t="n">
-        <v>94714.17</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M96" s="5" t="inlineStr"/>
       <c r="N96" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O96" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>44865</v>
+        <v>45028</v>
       </c>
       <c r="Q96" s="5" t="inlineStr"/>
-      <c r="R96" s="5" t="inlineStr"/>
-      <c r="S96" s="5" t="inlineStr"/>
-      <c r="T96" s="7" t="n">
-        <v>44649</v>
-      </c>
-      <c r="U96" s="7" t="n">
-        <v>44656</v>
-      </c>
-      <c r="V96" s="7" t="n">
-        <v>44669</v>
-      </c>
-      <c r="W96" s="7" t="n">
-        <v>44672</v>
+      <c r="R96" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+        </is>
+      </c>
+      <c r="S96" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+        </is>
+      </c>
+      <c r="T96" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U96" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V96" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W96" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X96" s="7" t="n">
-        <v>44740</v>
+        <v>44931</v>
       </c>
       <c r="Y96" s="5" t="inlineStr">
         <is>
-          <t>E.D. Angas Construction</t>
+          <t>Ten twenty allied Developers</t>
         </is>
       </c>
       <c r="Z96" s="5" t="inlineStr"/>
@@ -8425,24 +8565,24 @@
       </c>
       <c r="C97" s="5" t="inlineStr">
         <is>
-          <t>Siquijor</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D97" s="5" t="n">
-        <v>501430</v>
+        <v>119446</v>
       </c>
       <c r="E97" s="5" t="inlineStr">
         <is>
-          <t>San Juan Integrated School</t>
+          <t>Mindanao ES</t>
         </is>
       </c>
       <c r="F97" s="5" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>MALABUYOC</t>
         </is>
       </c>
       <c r="G97" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H97" s="5" t="n">
         <v>1</v>
@@ -8452,52 +8592,66 @@
       </c>
       <c r="J97" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY - (OPTION 2A - WITHOUT ROOFING, WITH COUNTER WITH PAINTED CEMENT FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 2A - WITH WATER CONTAINER, WITHOUT ROOFING)</t>
         </is>
       </c>
       <c r="K97" s="5" t="n">
-        <v>184826.54</v>
+        <v>89547.33</v>
       </c>
       <c r="L97" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M97" s="5" t="n">
-        <v>176198.13</v>
-      </c>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M97" s="5" t="inlineStr"/>
       <c r="N97" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O97" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P97" s="7" t="n">
-        <v>44865</v>
+        <v>45028</v>
       </c>
       <c r="Q97" s="5" t="inlineStr"/>
-      <c r="R97" s="5" t="inlineStr"/>
-      <c r="S97" s="5" t="inlineStr"/>
-      <c r="T97" s="7" t="n">
-        <v>44649</v>
-      </c>
-      <c r="U97" s="7" t="n">
-        <v>44656</v>
-      </c>
-      <c r="V97" s="7" t="n">
-        <v>44669</v>
-      </c>
-      <c r="W97" s="7" t="n">
-        <v>44672</v>
+      <c r="R97" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+        </is>
+      </c>
+      <c r="S97" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+        </is>
+      </c>
+      <c r="T97" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U97" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V97" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W97" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
       </c>
       <c r="X97" s="7" t="n">
-        <v>44740</v>
+        <v>44931</v>
       </c>
       <c r="Y97" s="5" t="inlineStr">
         <is>
-          <t>E.D. Angas Construction</t>
+          <t>Ten twenty allied Developers</t>
         </is>
       </c>
       <c r="Z97" s="5" t="inlineStr"/>
@@ -8520,16 +8674,16 @@
         </is>
       </c>
       <c r="D98" s="5" t="n">
-        <v>118866</v>
+        <v>119601</v>
       </c>
       <c r="E98" s="5" t="inlineStr">
         <is>
-          <t>Alcantara Central ES</t>
+          <t>Ronda Central ES</t>
         </is>
       </c>
       <c r="F98" s="5" t="inlineStr">
         <is>
-          <t>ALCANTARA</t>
+          <t>RONDA</t>
         </is>
       </c>
       <c r="G98" s="5" t="n">
@@ -8539,15 +8693,15 @@
         <v>1</v>
       </c>
       <c r="I98" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K98" s="5" t="n">
-        <v>439726</v>
+        <v>162952.68</v>
       </c>
       <c r="L98" s="5" t="inlineStr">
         <is>
@@ -8557,24 +8711,30 @@
       <c r="M98" s="5" t="inlineStr"/>
       <c r="N98" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O98" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P98" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q98" s="5" t="inlineStr"/>
+      <c r="P98" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
+      <c r="Q98" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
       <c r="R98" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
         </is>
       </c>
       <c r="S98" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
         </is>
       </c>
       <c r="T98" s="5" t="inlineStr">
@@ -8602,7 +8762,7 @@
       </c>
       <c r="Y98" s="5" t="inlineStr">
         <is>
-          <t>Ten twenty allied developers</t>
+          <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
         </is>
       </c>
       <c r="Z98" s="5" t="inlineStr"/>
@@ -8625,34 +8785,32 @@
         </is>
       </c>
       <c r="D99" s="5" t="n">
-        <v>118868</v>
+        <v>119601</v>
       </c>
       <c r="E99" s="5" t="inlineStr">
         <is>
-          <t>Candabong ES</t>
+          <t>Ronda Central ES</t>
         </is>
       </c>
       <c r="F99" s="5" t="inlineStr">
         <is>
-          <t>ALCANTARA</t>
+          <t>RONDA</t>
         </is>
       </c>
       <c r="G99" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H99" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H99" s="5" t="inlineStr"/>
       <c r="I99" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
         </is>
       </c>
       <c r="K99" s="5" t="n">
-        <v>439726</v>
+        <v>1325497.29</v>
       </c>
       <c r="L99" s="5" t="inlineStr">
         <is>
@@ -8662,24 +8820,30 @@
       <c r="M99" s="5" t="inlineStr"/>
       <c r="N99" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O99" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P99" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q99" s="5" t="inlineStr"/>
+      <c r="P99" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
+      <c r="Q99" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
       <c r="R99" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
         </is>
       </c>
       <c r="S99" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
         </is>
       </c>
       <c r="T99" s="5" t="inlineStr">
@@ -8707,7 +8871,7 @@
       </c>
       <c r="Y99" s="5" t="inlineStr">
         <is>
-          <t>Ten twenty allied developers</t>
+          <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
         </is>
       </c>
       <c r="Z99" s="5" t="inlineStr"/>
@@ -8730,16 +8894,16 @@
         </is>
       </c>
       <c r="D100" s="5" t="n">
-        <v>187004</v>
+        <v>119602</v>
       </c>
       <c r="E100" s="5" t="inlineStr">
         <is>
-          <t>Palanas ES</t>
+          <t>Sta. Cruz ES</t>
         </is>
       </c>
       <c r="F100" s="5" t="inlineStr">
         <is>
-          <t>ALCANTARA</t>
+          <t>RONDA</t>
         </is>
       </c>
       <c r="G100" s="5" t="n">
@@ -8749,15 +8913,15 @@
         <v>1</v>
       </c>
       <c r="I100" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K100" s="5" t="n">
-        <v>219863</v>
+        <v>289269.18</v>
       </c>
       <c r="L100" s="5" t="inlineStr">
         <is>
@@ -8767,24 +8931,30 @@
       <c r="M100" s="5" t="inlineStr"/>
       <c r="N100" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O100" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P100" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q100" s="5" t="inlineStr"/>
+      <c r="P100" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
+      <c r="Q100" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
       <c r="R100" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
         </is>
       </c>
       <c r="S100" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
         </is>
       </c>
       <c r="T100" s="5" t="inlineStr">
@@ -8812,7 +8982,7 @@
       </c>
       <c r="Y100" s="5" t="inlineStr">
         <is>
-          <t>Ten twenty allied developers</t>
+          <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
         </is>
       </c>
       <c r="Z100" s="5" t="inlineStr"/>
@@ -8835,34 +9005,32 @@
         </is>
       </c>
       <c r="D101" s="5" t="n">
-        <v>302922</v>
+        <v>119602</v>
       </c>
       <c r="E101" s="5" t="inlineStr">
         <is>
-          <t>Alcantara NHS</t>
+          <t>Sta. Cruz ES</t>
         </is>
       </c>
       <c r="F101" s="5" t="inlineStr">
         <is>
-          <t>ALCANTARA</t>
+          <t>RONDA</t>
         </is>
       </c>
       <c r="G101" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H101" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H101" s="5" t="inlineStr"/>
       <c r="I101" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J101" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
         </is>
       </c>
       <c r="K101" s="5" t="n">
-        <v>657930</v>
+        <v>1325497.29</v>
       </c>
       <c r="L101" s="5" t="inlineStr">
         <is>
@@ -8872,24 +9040,30 @@
       <c r="M101" s="5" t="inlineStr"/>
       <c r="N101" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O101" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P101" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q101" s="5" t="inlineStr"/>
+      <c r="P101" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
+      <c r="Q101" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
       <c r="R101" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
         </is>
       </c>
       <c r="S101" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
         </is>
       </c>
       <c r="T101" s="5" t="inlineStr">
@@ -8917,7 +9091,7 @@
       </c>
       <c r="Y101" s="5" t="inlineStr">
         <is>
-          <t>Ten twenty allied developers</t>
+          <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
         </is>
       </c>
       <c r="Z101" s="5" t="inlineStr"/>
@@ -8940,32 +9114,34 @@
         </is>
       </c>
       <c r="D102" s="5" t="n">
-        <v>302922</v>
+        <v>303034</v>
       </c>
       <c r="E102" s="5" t="inlineStr">
         <is>
-          <t>Alcantara NHS</t>
+          <t>Ronda NHS- Langin NHS Ext.</t>
         </is>
       </c>
       <c r="F102" s="5" t="inlineStr">
         <is>
-          <t>ALCANTARA</t>
+          <t>RONDA</t>
         </is>
       </c>
       <c r="G102" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H102" s="5" t="inlineStr"/>
+      <c r="H102" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I102" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J102" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF SCHOOL CLINIC</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 3B - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K102" s="5" t="n">
-        <v>2558274.37</v>
+        <v>162432.34</v>
       </c>
       <c r="L102" s="5" t="inlineStr">
         <is>
@@ -8981,18 +9157,24 @@
       <c r="O102" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P102" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q102" s="5" t="inlineStr"/>
+      <c r="P102" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
+      <c r="Q102" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
       <c r="R102" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
         </is>
       </c>
       <c r="S102" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
         </is>
       </c>
       <c r="T102" s="5" t="inlineStr">
@@ -9020,7 +9202,7 @@
       </c>
       <c r="Y102" s="5" t="inlineStr">
         <is>
-          <t>Ten twenty allied developers</t>
+          <t>Tri-bairn Construction</t>
         </is>
       </c>
       <c r="Z102" s="5" t="inlineStr"/>
@@ -9043,34 +9225,32 @@
         </is>
       </c>
       <c r="D103" s="5" t="n">
-        <v>500649</v>
+        <v>303034</v>
       </c>
       <c r="E103" s="5" t="inlineStr">
         <is>
-          <t>Cabadiangan Integrated School</t>
+          <t>Ronda NHS- Langin NHS Ext.</t>
         </is>
       </c>
       <c r="F103" s="5" t="inlineStr">
         <is>
-          <t>ALCANTARA</t>
+          <t>RONDA</t>
         </is>
       </c>
       <c r="G103" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H103" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H103" s="5" t="inlineStr"/>
       <c r="I103" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J103" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 2A - WITH WATER CONTAINER, WITHOUT ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
         </is>
       </c>
       <c r="K103" s="5" t="n">
-        <v>89547.33</v>
+        <v>1325497.29</v>
       </c>
       <c r="L103" s="5" t="inlineStr">
         <is>
@@ -9080,24 +9260,30 @@
       <c r="M103" s="5" t="inlineStr"/>
       <c r="N103" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O103" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P103" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q103" s="5" t="inlineStr"/>
+      <c r="P103" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
+      <c r="Q103" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
       <c r="R103" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
         </is>
       </c>
       <c r="S103" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
         </is>
       </c>
       <c r="T103" s="5" t="inlineStr">
@@ -9125,7 +9311,7 @@
       </c>
       <c r="Y103" s="5" t="inlineStr">
         <is>
-          <t>Ten twenty allied developers</t>
+          <t>Tri-bairn Construction</t>
         </is>
       </c>
       <c r="Z103" s="5" t="inlineStr"/>
@@ -9148,34 +9334,32 @@
         </is>
       </c>
       <c r="D104" s="5" t="n">
-        <v>302918</v>
+        <v>303034</v>
       </c>
       <c r="E104" s="5" t="inlineStr">
         <is>
-          <t>Nug-as NHS</t>
+          <t>Ronda NHS- Langin NHS Ext.</t>
         </is>
       </c>
       <c r="F104" s="5" t="inlineStr">
         <is>
-          <t>ALCOY</t>
+          <t>RONDA</t>
         </is>
       </c>
       <c r="G104" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H104" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H104" s="5" t="inlineStr"/>
       <c r="I104" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J104" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
       <c r="K104" s="5" t="n">
-        <v>219310</v>
+        <v>2558274.37</v>
       </c>
       <c r="L104" s="5" t="inlineStr">
         <is>
@@ -9185,24 +9369,30 @@
       <c r="M104" s="5" t="inlineStr"/>
       <c r="N104" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O104" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P104" s="7" t="n">
-        <v>44998</v>
-      </c>
-      <c r="Q104" s="5" t="inlineStr"/>
+      <c r="P104" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
+      <c r="Q104" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
       <c r="R104" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
         </is>
       </c>
       <c r="S104" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
         </is>
       </c>
       <c r="T104" s="5" t="inlineStr">
@@ -9230,7 +9420,7 @@
       </c>
       <c r="Y104" s="5" t="inlineStr">
         <is>
-          <t>GCATZ Construction</t>
+          <t>Tri-bairn Construction</t>
         </is>
       </c>
       <c r="Z104" s="5" t="inlineStr"/>
@@ -9253,16 +9443,16 @@
         </is>
       </c>
       <c r="D105" s="5" t="n">
-        <v>500650</v>
+        <v>119613</v>
       </c>
       <c r="E105" s="5" t="inlineStr">
         <is>
-          <t>Pasol-Pugalo IS</t>
+          <t>Samboan Central ES</t>
         </is>
       </c>
       <c r="F105" s="5" t="inlineStr">
         <is>
-          <t>ALCOY</t>
+          <t>SAMBOAN</t>
         </is>
       </c>
       <c r="G105" s="5" t="n">
@@ -9272,15 +9462,15 @@
         <v>1</v>
       </c>
       <c r="I105" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K105" s="5" t="n">
-        <v>219863</v>
+        <v>289269.18</v>
       </c>
       <c r="L105" s="5" t="inlineStr">
         <is>
@@ -9358,16 +9548,16 @@
         </is>
       </c>
       <c r="D106" s="5" t="n">
-        <v>119132</v>
+        <v>303090</v>
       </c>
       <c r="E106" s="5" t="inlineStr">
         <is>
-          <t>Lunop ES</t>
+          <t>Samboan NHS</t>
         </is>
       </c>
       <c r="F106" s="5" t="inlineStr">
         <is>
-          <t>BOLJOON</t>
+          <t>SAMBOAN</t>
         </is>
       </c>
       <c r="G106" s="5" t="n">
@@ -9381,11 +9571,11 @@
       </c>
       <c r="J106" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K106" s="5" t="n">
-        <v>219863</v>
+        <v>219310</v>
       </c>
       <c r="L106" s="5" t="inlineStr">
         <is>
@@ -9463,16 +9653,16 @@
         </is>
       </c>
       <c r="D107" s="5" t="n">
-        <v>302944</v>
+        <v>119860</v>
       </c>
       <c r="E107" s="5" t="inlineStr">
         <is>
-          <t>Lunop NHS</t>
+          <t>Puertobello ES</t>
         </is>
       </c>
       <c r="F107" s="5" t="inlineStr">
         <is>
-          <t>BOLJOON</t>
+          <t>TUDELA</t>
         </is>
       </c>
       <c r="G107" s="5" t="n">
@@ -9486,11 +9676,11 @@
       </c>
       <c r="J107" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K107" s="5" t="n">
-        <v>219310</v>
+        <v>239863</v>
       </c>
       <c r="L107" s="5" t="inlineStr">
         <is>
@@ -9500,24 +9690,24 @@
       <c r="M107" s="5" t="inlineStr"/>
       <c r="N107" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O107" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P107" s="7" t="n">
-        <v>44998</v>
+        <v>45028</v>
       </c>
       <c r="Q107" s="5" t="inlineStr"/>
       <c r="R107" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
         </is>
       </c>
       <c r="S107" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
         </is>
       </c>
       <c r="T107" s="5" t="inlineStr">
@@ -9545,7 +9735,7 @@
       </c>
       <c r="Y107" s="5" t="inlineStr">
         <is>
-          <t>GCATZ Construction</t>
+          <t>Barr steel Construction</t>
         </is>
       </c>
       <c r="Z107" s="5" t="inlineStr"/>
@@ -9568,16 +9758,16 @@
         </is>
       </c>
       <c r="D108" s="5" t="n">
-        <v>119404</v>
+        <v>303080</v>
       </c>
       <c r="E108" s="5" t="inlineStr">
         <is>
-          <t>Kabatuan ES</t>
+          <t>Puertobello NHS</t>
         </is>
       </c>
       <c r="F108" s="5" t="inlineStr">
         <is>
-          <t>GINATILAN</t>
+          <t>TUDELA</t>
         </is>
       </c>
       <c r="G108" s="5" t="n">
@@ -9587,15 +9777,15 @@
         <v>1</v>
       </c>
       <c r="I108" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K108" s="5" t="n">
-        <v>219863</v>
+        <v>478620</v>
       </c>
       <c r="L108" s="5" t="inlineStr">
         <is>
@@ -9605,7 +9795,7 @@
       <c r="M108" s="5" t="inlineStr"/>
       <c r="N108" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O108" s="5" t="n">
@@ -9617,12 +9807,12 @@
       <c r="Q108" s="5" t="inlineStr"/>
       <c r="R108" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
         </is>
       </c>
       <c r="S108" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
         </is>
       </c>
       <c r="T108" s="5" t="inlineStr">
@@ -9650,7 +9840,7 @@
       </c>
       <c r="Y108" s="5" t="inlineStr">
         <is>
-          <t>Ten twenty allied Developers</t>
+          <t>Barr steel Construction</t>
         </is>
       </c>
       <c r="Z108" s="5" t="inlineStr"/>
@@ -9673,34 +9863,32 @@
         </is>
       </c>
       <c r="D109" s="5" t="n">
-        <v>500894</v>
+        <v>303080</v>
       </c>
       <c r="E109" s="5" t="inlineStr">
         <is>
-          <t>Ginatilan Integrated School</t>
+          <t>Puertobello NHS</t>
         </is>
       </c>
       <c r="F109" s="5" t="inlineStr">
         <is>
-          <t>GINATILAN</t>
+          <t>TUDELA</t>
         </is>
       </c>
       <c r="G109" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H109" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H109" s="5" t="inlineStr"/>
       <c r="I109" s="5" t="n">
         <v>2</v>
       </c>
       <c r="J109" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
       <c r="K109" s="5" t="n">
-        <v>289269.18</v>
+        <v>2808274.37</v>
       </c>
       <c r="L109" s="5" t="inlineStr">
         <is>
@@ -9710,7 +9898,7 @@
       <c r="M109" s="5" t="inlineStr"/>
       <c r="N109" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O109" s="5" t="n">
@@ -9722,12 +9910,12 @@
       <c r="Q109" s="5" t="inlineStr"/>
       <c r="R109" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
         </is>
       </c>
       <c r="S109" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
         </is>
       </c>
       <c r="T109" s="5" t="inlineStr">
@@ -9755,1620 +9943,15 @@
       </c>
       <c r="Y109" s="5" t="inlineStr">
         <is>
-          <t>Ten twenty allied Developers</t>
+          <t>Barr steel Construction</t>
         </is>
       </c>
       <c r="Z109" s="5" t="inlineStr"/>
       <c r="AA109" s="6" t="n"/>
     </row>
-    <row r="110">
-      <c r="A110" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B110" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C110" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D110" s="5" t="n">
-        <v>500894</v>
-      </c>
-      <c r="E110" s="5" t="inlineStr">
-        <is>
-          <t>Ginatilan Integrated School</t>
-        </is>
-      </c>
-      <c r="F110" s="5" t="inlineStr">
-        <is>
-          <t>GINATILAN</t>
-        </is>
-      </c>
-      <c r="G110" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H110" s="5" t="inlineStr"/>
-      <c r="I110" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
-        </is>
-      </c>
-      <c r="K110" s="5" t="n">
-        <v>1325497.29</v>
-      </c>
-      <c r="L110" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M110" s="5" t="inlineStr"/>
-      <c r="N110" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="O110" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P110" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q110" s="5" t="inlineStr"/>
-      <c r="R110" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
-        </is>
-      </c>
-      <c r="S110" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
-        </is>
-      </c>
-      <c r="T110" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U110" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V110" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W110" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X110" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y110" s="5" t="inlineStr">
-        <is>
-          <t>Ten twenty allied Developers</t>
-        </is>
-      </c>
-      <c r="Z110" s="5" t="inlineStr"/>
-      <c r="AA110" s="6" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B111" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C111" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D111" s="5" t="n">
-        <v>119445</v>
-      </c>
-      <c r="E111" s="5" t="inlineStr">
-        <is>
-          <t>Malabuyoc Central ES</t>
-        </is>
-      </c>
-      <c r="F111" s="5" t="inlineStr">
-        <is>
-          <t>MALABUYOC</t>
-        </is>
-      </c>
-      <c r="G111" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H111" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J111" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF THREE (3) UNITS GROUP HANDWASHING FACILITY OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH &amp; ONE UNIT OPTION 1A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH</t>
-        </is>
-      </c>
-      <c r="K111" s="5" t="n">
-        <v>576528.38</v>
-      </c>
-      <c r="L111" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M111" s="5" t="inlineStr"/>
-      <c r="N111" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="O111" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P111" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q111" s="5" t="inlineStr"/>
-      <c r="R111" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
-        </is>
-      </c>
-      <c r="S111" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
-        </is>
-      </c>
-      <c r="T111" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U111" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V111" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W111" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X111" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y111" s="5" t="inlineStr">
-        <is>
-          <t>Ten twenty allied Developers</t>
-        </is>
-      </c>
-      <c r="Z111" s="5" t="inlineStr"/>
-      <c r="AA111" s="6" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B112" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C112" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D112" s="5" t="n">
-        <v>119446</v>
-      </c>
-      <c r="E112" s="5" t="inlineStr">
-        <is>
-          <t>Mindanao ES</t>
-        </is>
-      </c>
-      <c r="F112" s="5" t="inlineStr">
-        <is>
-          <t>MALABUYOC</t>
-        </is>
-      </c>
-      <c r="G112" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H112" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 2A - WITH WATER CONTAINER, WITHOUT ROOFING)</t>
-        </is>
-      </c>
-      <c r="K112" s="5" t="n">
-        <v>89547.33</v>
-      </c>
-      <c r="L112" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M112" s="5" t="inlineStr"/>
-      <c r="N112" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="O112" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P112" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q112" s="5" t="inlineStr"/>
-      <c r="R112" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
-        </is>
-      </c>
-      <c r="S112" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
-        </is>
-      </c>
-      <c r="T112" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U112" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V112" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W112" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X112" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y112" s="5" t="inlineStr">
-        <is>
-          <t>Ten twenty allied Developers</t>
-        </is>
-      </c>
-      <c r="Z112" s="5" t="inlineStr"/>
-      <c r="AA112" s="6" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B113" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C113" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D113" s="5" t="n">
-        <v>119601</v>
-      </c>
-      <c r="E113" s="5" t="inlineStr">
-        <is>
-          <t>Ronda Central ES</t>
-        </is>
-      </c>
-      <c r="F113" s="5" t="inlineStr">
-        <is>
-          <t>RONDA</t>
-        </is>
-      </c>
-      <c r="G113" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H113" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
-        </is>
-      </c>
-      <c r="K113" s="5" t="n">
-        <v>162952.68</v>
-      </c>
-      <c r="L113" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M113" s="5" t="inlineStr"/>
-      <c r="N113" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O113" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P113" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="Q113" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="R113" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
-        </is>
-      </c>
-      <c r="S113" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
-        </is>
-      </c>
-      <c r="T113" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U113" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V113" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W113" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X113" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y113" s="5" t="inlineStr">
-        <is>
-          <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
-        </is>
-      </c>
-      <c r="Z113" s="5" t="inlineStr"/>
-      <c r="AA113" s="6" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B114" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C114" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D114" s="5" t="n">
-        <v>119601</v>
-      </c>
-      <c r="E114" s="5" t="inlineStr">
-        <is>
-          <t>Ronda Central ES</t>
-        </is>
-      </c>
-      <c r="F114" s="5" t="inlineStr">
-        <is>
-          <t>RONDA</t>
-        </is>
-      </c>
-      <c r="G114" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H114" s="5" t="inlineStr"/>
-      <c r="I114" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
-        </is>
-      </c>
-      <c r="K114" s="5" t="n">
-        <v>1325497.29</v>
-      </c>
-      <c r="L114" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M114" s="5" t="inlineStr"/>
-      <c r="N114" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O114" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P114" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="Q114" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="R114" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
-        </is>
-      </c>
-      <c r="S114" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
-        </is>
-      </c>
-      <c r="T114" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U114" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V114" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W114" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X114" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y114" s="5" t="inlineStr">
-        <is>
-          <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
-        </is>
-      </c>
-      <c r="Z114" s="5" t="inlineStr"/>
-      <c r="AA114" s="6" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B115" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C115" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D115" s="5" t="n">
-        <v>119602</v>
-      </c>
-      <c r="E115" s="5" t="inlineStr">
-        <is>
-          <t>Sta. Cruz ES</t>
-        </is>
-      </c>
-      <c r="F115" s="5" t="inlineStr">
-        <is>
-          <t>RONDA</t>
-        </is>
-      </c>
-      <c r="G115" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H115" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J115" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
-        </is>
-      </c>
-      <c r="K115" s="5" t="n">
-        <v>289269.18</v>
-      </c>
-      <c r="L115" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M115" s="5" t="inlineStr"/>
-      <c r="N115" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O115" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P115" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="Q115" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="R115" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
-        </is>
-      </c>
-      <c r="S115" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
-        </is>
-      </c>
-      <c r="T115" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U115" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V115" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W115" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X115" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y115" s="5" t="inlineStr">
-        <is>
-          <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
-        </is>
-      </c>
-      <c r="Z115" s="5" t="inlineStr"/>
-      <c r="AA115" s="6" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B116" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C116" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D116" s="5" t="n">
-        <v>119602</v>
-      </c>
-      <c r="E116" s="5" t="inlineStr">
-        <is>
-          <t>Sta. Cruz ES</t>
-        </is>
-      </c>
-      <c r="F116" s="5" t="inlineStr">
-        <is>
-          <t>RONDA</t>
-        </is>
-      </c>
-      <c r="G116" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H116" s="5" t="inlineStr"/>
-      <c r="I116" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
-        </is>
-      </c>
-      <c r="K116" s="5" t="n">
-        <v>1325497.29</v>
-      </c>
-      <c r="L116" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M116" s="5" t="inlineStr"/>
-      <c r="N116" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O116" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P116" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="Q116" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="R116" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
-        </is>
-      </c>
-      <c r="S116" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
-        </is>
-      </c>
-      <c r="T116" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U116" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V116" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W116" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X116" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y116" s="5" t="inlineStr">
-        <is>
-          <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
-        </is>
-      </c>
-      <c r="Z116" s="5" t="inlineStr"/>
-      <c r="AA116" s="6" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B117" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C117" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D117" s="5" t="n">
-        <v>303034</v>
-      </c>
-      <c r="E117" s="5" t="inlineStr">
-        <is>
-          <t>Ronda NHS- Langin NHS Ext.</t>
-        </is>
-      </c>
-      <c r="F117" s="5" t="inlineStr">
-        <is>
-          <t>RONDA</t>
-        </is>
-      </c>
-      <c r="G117" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H117" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 3B - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
-        </is>
-      </c>
-      <c r="K117" s="5" t="n">
-        <v>162432.34</v>
-      </c>
-      <c r="L117" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M117" s="5" t="inlineStr"/>
-      <c r="N117" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O117" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P117" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="Q117" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="R117" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
-        </is>
-      </c>
-      <c r="S117" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
-        </is>
-      </c>
-      <c r="T117" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U117" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V117" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W117" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X117" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y117" s="5" t="inlineStr">
-        <is>
-          <t>Tri-bairn Construction</t>
-        </is>
-      </c>
-      <c r="Z117" s="5" t="inlineStr"/>
-      <c r="AA117" s="6" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B118" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C118" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D118" s="5" t="n">
-        <v>303034</v>
-      </c>
-      <c r="E118" s="5" t="inlineStr">
-        <is>
-          <t>Ronda NHS- Langin NHS Ext.</t>
-        </is>
-      </c>
-      <c r="F118" s="5" t="inlineStr">
-        <is>
-          <t>RONDA</t>
-        </is>
-      </c>
-      <c r="G118" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H118" s="5" t="inlineStr"/>
-      <c r="I118" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
-        </is>
-      </c>
-      <c r="K118" s="5" t="n">
-        <v>1325497.29</v>
-      </c>
-      <c r="L118" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M118" s="5" t="inlineStr"/>
-      <c r="N118" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O118" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P118" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="Q118" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="R118" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
-        </is>
-      </c>
-      <c r="S118" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
-        </is>
-      </c>
-      <c r="T118" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U118" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V118" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W118" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X118" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y118" s="5" t="inlineStr">
-        <is>
-          <t>Tri-bairn Construction</t>
-        </is>
-      </c>
-      <c r="Z118" s="5" t="inlineStr"/>
-      <c r="AA118" s="6" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B119" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C119" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D119" s="5" t="n">
-        <v>303034</v>
-      </c>
-      <c r="E119" s="5" t="inlineStr">
-        <is>
-          <t>Ronda NHS- Langin NHS Ext.</t>
-        </is>
-      </c>
-      <c r="F119" s="5" t="inlineStr">
-        <is>
-          <t>RONDA</t>
-        </is>
-      </c>
-      <c r="G119" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H119" s="5" t="inlineStr"/>
-      <c r="I119" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF SCHOOL CLINIC</t>
-        </is>
-      </c>
-      <c r="K119" s="5" t="n">
-        <v>2558274.37</v>
-      </c>
-      <c r="L119" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M119" s="5" t="inlineStr"/>
-      <c r="N119" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O119" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P119" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="Q119" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="R119" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
-        </is>
-      </c>
-      <c r="S119" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
-        </is>
-      </c>
-      <c r="T119" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U119" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V119" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W119" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X119" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y119" s="5" t="inlineStr">
-        <is>
-          <t>Tri-bairn Construction</t>
-        </is>
-      </c>
-      <c r="Z119" s="5" t="inlineStr"/>
-      <c r="AA119" s="6" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B120" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C120" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D120" s="5" t="n">
-        <v>119613</v>
-      </c>
-      <c r="E120" s="5" t="inlineStr">
-        <is>
-          <t>Samboan Central ES</t>
-        </is>
-      </c>
-      <c r="F120" s="5" t="inlineStr">
-        <is>
-          <t>SAMBOAN</t>
-        </is>
-      </c>
-      <c r="G120" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H120" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J120" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
-        </is>
-      </c>
-      <c r="K120" s="5" t="n">
-        <v>289269.18</v>
-      </c>
-      <c r="L120" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M120" s="5" t="inlineStr"/>
-      <c r="N120" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="O120" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P120" s="7" t="n">
-        <v>44998</v>
-      </c>
-      <c r="Q120" s="5" t="inlineStr"/>
-      <c r="R120" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
-        </is>
-      </c>
-      <c r="S120" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
-        </is>
-      </c>
-      <c r="T120" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U120" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V120" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W120" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X120" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y120" s="5" t="inlineStr">
-        <is>
-          <t>GCATZ Construction</t>
-        </is>
-      </c>
-      <c r="Z120" s="5" t="inlineStr"/>
-      <c r="AA120" s="6" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B121" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C121" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D121" s="5" t="n">
-        <v>303090</v>
-      </c>
-      <c r="E121" s="5" t="inlineStr">
-        <is>
-          <t>Samboan NHS</t>
-        </is>
-      </c>
-      <c r="F121" s="5" t="inlineStr">
-        <is>
-          <t>SAMBOAN</t>
-        </is>
-      </c>
-      <c r="G121" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H121" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
-        </is>
-      </c>
-      <c r="K121" s="5" t="n">
-        <v>219310</v>
-      </c>
-      <c r="L121" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M121" s="5" t="inlineStr"/>
-      <c r="N121" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="O121" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P121" s="7" t="n">
-        <v>44998</v>
-      </c>
-      <c r="Q121" s="5" t="inlineStr"/>
-      <c r="R121" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
-        </is>
-      </c>
-      <c r="S121" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
-        </is>
-      </c>
-      <c r="T121" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U121" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V121" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W121" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X121" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y121" s="5" t="inlineStr">
-        <is>
-          <t>GCATZ Construction</t>
-        </is>
-      </c>
-      <c r="Z121" s="5" t="inlineStr"/>
-      <c r="AA121" s="6" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B122" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C122" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D122" s="5" t="n">
-        <v>119860</v>
-      </c>
-      <c r="E122" s="5" t="inlineStr">
-        <is>
-          <t>Puertobello ES</t>
-        </is>
-      </c>
-      <c r="F122" s="5" t="inlineStr">
-        <is>
-          <t>TUDELA</t>
-        </is>
-      </c>
-      <c r="G122" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H122" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
-        </is>
-      </c>
-      <c r="K122" s="5" t="n">
-        <v>239863</v>
-      </c>
-      <c r="L122" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M122" s="5" t="inlineStr"/>
-      <c r="N122" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O122" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P122" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q122" s="5" t="inlineStr"/>
-      <c r="R122" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
-        </is>
-      </c>
-      <c r="S122" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
-        </is>
-      </c>
-      <c r="T122" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U122" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V122" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W122" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X122" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y122" s="5" t="inlineStr">
-        <is>
-          <t>Barr steel Construction</t>
-        </is>
-      </c>
-      <c r="Z122" s="5" t="inlineStr"/>
-      <c r="AA122" s="6" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B123" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C123" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D123" s="5" t="n">
-        <v>303080</v>
-      </c>
-      <c r="E123" s="5" t="inlineStr">
-        <is>
-          <t>Puertobello NHS</t>
-        </is>
-      </c>
-      <c r="F123" s="5" t="inlineStr">
-        <is>
-          <t>TUDELA</t>
-        </is>
-      </c>
-      <c r="G123" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H123" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J123" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
-        </is>
-      </c>
-      <c r="K123" s="5" t="n">
-        <v>478620</v>
-      </c>
-      <c r="L123" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M123" s="5" t="inlineStr"/>
-      <c r="N123" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O123" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P123" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q123" s="5" t="inlineStr"/>
-      <c r="R123" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
-        </is>
-      </c>
-      <c r="S123" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
-        </is>
-      </c>
-      <c r="T123" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U123" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V123" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W123" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X123" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y123" s="5" t="inlineStr">
-        <is>
-          <t>Barr steel Construction</t>
-        </is>
-      </c>
-      <c r="Z123" s="5" t="inlineStr"/>
-      <c r="AA123" s="6" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B124" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C124" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D124" s="5" t="n">
-        <v>303080</v>
-      </c>
-      <c r="E124" s="5" t="inlineStr">
-        <is>
-          <t>Puertobello NHS</t>
-        </is>
-      </c>
-      <c r="F124" s="5" t="inlineStr">
-        <is>
-          <t>TUDELA</t>
-        </is>
-      </c>
-      <c r="G124" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H124" s="5" t="inlineStr"/>
-      <c r="I124" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J124" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF SCHOOL CLINIC</t>
-        </is>
-      </c>
-      <c r="K124" s="5" t="n">
-        <v>2808274.37</v>
-      </c>
-      <c r="L124" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M124" s="5" t="inlineStr"/>
-      <c r="N124" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O124" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P124" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q124" s="5" t="inlineStr"/>
-      <c r="R124" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
-        </is>
-      </c>
-      <c r="S124" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
-        </is>
-      </c>
-      <c r="T124" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U124" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V124" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W124" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X124" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y124" s="5" t="inlineStr">
-        <is>
-          <t>Barr steel Construction</t>
-        </is>
-      </c>
-      <c r="Z124" s="5" t="inlineStr"/>
-      <c r="AA124" s="6" t="n"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA124" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA109" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VII/Region VII_HEALTH.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_HEALTH.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA109"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -455,10 +455,10 @@
   <cols>
     <col width="31" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="44" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
@@ -466,7 +466,7 @@
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="9" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
     <col width="26" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
     <col width="27" customWidth="1" min="17" max="17"/>
@@ -1399,7 +1399,7 @@
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>SCHOOL HEALTH FACILITIES 2024</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
@@ -1409,56 +1409,64 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>Guihulngan City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>120245</v>
+        <v>117929</v>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>Hilaitan ES</t>
+          <t>Alburquerque Central ES</t>
         </is>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>CITY OF GUIHULNGAN</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1st </t>
-        </is>
+          <t>Alburquerque</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>Clinic &amp; Watsan</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3525668.96</v>
-      </c>
-      <c r="L9" s="5" t="inlineStr"/>
+        <v>130115.03</v>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="inlineStr">
         <is>
-          <t>not yet started</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O9" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="5" t="inlineStr"/>
       <c r="Q9" s="5" t="inlineStr"/>
       <c r="R9" s="5" t="inlineStr"/>
       <c r="S9" s="5" t="inlineStr"/>
       <c r="T9" s="5" t="inlineStr"/>
-      <c r="U9" s="5" t="inlineStr"/>
-      <c r="V9" s="5" t="inlineStr"/>
+      <c r="U9" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="V9" s="7" t="n">
+        <v>44727</v>
+      </c>
       <c r="W9" s="5" t="inlineStr"/>
       <c r="X9" s="5" t="inlineStr"/>
       <c r="Y9" s="5" t="inlineStr"/>
@@ -1482,11 +1490,11 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>117929</v>
+        <v>117930</v>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>Alburquerque Central ES</t>
+          <t>Bahi Primary School</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
@@ -1559,11 +1567,11 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>117930</v>
+        <v>117933</v>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>Bahi Primary School</t>
+          <t>Dangay ES</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
@@ -1636,11 +1644,11 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>117933</v>
+        <v>117934</v>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>Dangay ES</t>
+          <t>Tagbuane ES</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
@@ -1713,11 +1721,11 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>117934</v>
+        <v>117935</v>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Tagbuane ES</t>
+          <t>Toril ES</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
@@ -1790,20 +1798,20 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>117935</v>
+        <v>117953</v>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Toril ES</t>
+          <t>Anda Central ES</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>Alburquerque</t>
+          <t>Anda</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>1</v>
@@ -1867,11 +1875,11 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>117953</v>
+        <v>117954</v>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>Anda Central ES</t>
+          <t>Bacong ES</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
@@ -1944,11 +1952,11 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>117954</v>
+        <v>117955</v>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Bacong ES</t>
+          <t>Badiang ES</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
@@ -2021,11 +2029,11 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>117955</v>
+        <v>117957</v>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Badiang ES</t>
+          <t>Candabong ES</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
@@ -2098,11 +2106,11 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>117957</v>
+        <v>117958</v>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Candabong ES</t>
+          <t>Casica PS</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
@@ -2175,11 +2183,11 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>117958</v>
+        <v>117961</v>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Casica PS</t>
+          <t>Londag ES</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
@@ -2252,11 +2260,11 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>117961</v>
+        <v>117963</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Londag ES</t>
+          <t>Porcenas ES</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
@@ -2329,11 +2337,11 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>117963</v>
+        <v>117964</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Porcenas ES</t>
+          <t>Talisay ES</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
@@ -2406,11 +2414,11 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>117964</v>
+        <v>117966</v>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Talisay ES</t>
+          <t>Virgen ES</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
@@ -2483,11 +2491,11 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>117966</v>
+        <v>186509</v>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>Virgen ES</t>
+          <t>Suba PS</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
@@ -2560,11 +2568,11 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>186509</v>
+        <v>302812</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>Suba PS</t>
+          <t>Badiang NHS</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
@@ -2637,11 +2645,11 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>302812</v>
+        <v>302829</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>Badiang NHS</t>
+          <t>Candabong National High School</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
@@ -2714,16 +2722,16 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>302829</v>
+        <v>118012</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Candabong National High School</t>
+          <t>Batuan Central ES</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>Anda</t>
+          <t>Batuan</t>
         </is>
       </c>
       <c r="G26" s="5" t="n">
@@ -2791,11 +2799,11 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>118012</v>
+        <v>118018</v>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>Batuan Central ES</t>
+          <t>Cantigdas Elementary School</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
@@ -2868,11 +2876,11 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>118018</v>
+        <v>118020</v>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>Cantigdas Elementary School</t>
+          <t>Janlud ES</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
@@ -2945,11 +2953,11 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>118020</v>
+        <v>118025</v>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>Janlud ES</t>
+          <t>Rosariohan ES</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
@@ -3022,11 +3030,11 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>118025</v>
+        <v>118026</v>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>Rosariohan ES</t>
+          <t>Sta. Cruz ES</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
@@ -3099,20 +3107,20 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>118026</v>
+        <v>118184</v>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>Sta. Cruz ES</t>
+          <t>Bacani ES</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>Batuan</t>
+          <t>Clarin</t>
         </is>
       </c>
       <c r="G31" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="5" t="n">
         <v>1</v>
@@ -3176,11 +3184,11 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>118184</v>
+        <v>118185</v>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>Bacani ES</t>
+          <t>Bogtongbod ES</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
@@ -3253,11 +3261,11 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>118185</v>
+        <v>118186</v>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>Bogtongbod ES</t>
+          <t>Bonbon Elementary School</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
@@ -3330,11 +3338,11 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>118186</v>
+        <v>118188</v>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>Bonbon Elementary School</t>
+          <t>Buacao ES</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
@@ -3407,11 +3415,11 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>118188</v>
+        <v>118189</v>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>Buacao ES</t>
+          <t>Buangan ES</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
@@ -3484,11 +3492,11 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>118189</v>
+        <v>118190</v>
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>Buangan ES</t>
+          <t>Cabog ES</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
@@ -3561,11 +3569,11 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>118190</v>
+        <v>118191</v>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>Cabog ES</t>
+          <t>Caboy ES</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
@@ -3638,11 +3646,11 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>118191</v>
+        <v>118192</v>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>Caboy ES</t>
+          <t>Cantoyoc PS</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
@@ -3715,11 +3723,11 @@
         </is>
       </c>
       <c r="D39" s="5" t="n">
-        <v>118192</v>
+        <v>118193</v>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>Cantoyoc PS</t>
+          <t>Clarin Central ES</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
@@ -3792,11 +3800,11 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>118193</v>
+        <v>118195</v>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>Clarin Central ES</t>
+          <t>Lajog ES</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
@@ -3869,11 +3877,11 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>118195</v>
+        <v>118197</v>
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>Lajog ES</t>
+          <t>Nahawan ES</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
@@ -3946,20 +3954,20 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>118197</v>
+        <v>118201</v>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>Nahawan ES</t>
+          <t>Canapnapan PS</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
         <is>
-          <t>Clarin</t>
+          <t>Corella</t>
         </is>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="5" t="n">
         <v>1</v>
@@ -4023,11 +4031,11 @@
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>118201</v>
+        <v>118202</v>
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>Canapnapan PS</t>
+          <t>Cancatac ES</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
@@ -4100,11 +4108,11 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>118202</v>
+        <v>118203</v>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>Cancatac ES</t>
+          <t>Corella Central ES</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
@@ -4177,11 +4185,11 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>118203</v>
+        <v>118204</v>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>Corella Central ES</t>
+          <t>Sambog ES</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
@@ -4254,11 +4262,11 @@
         </is>
       </c>
       <c r="D46" s="5" t="n">
-        <v>118204</v>
+        <v>118205</v>
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>Sambog ES</t>
+          <t>Tanday ES</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
@@ -4331,11 +4339,11 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>118205</v>
+        <v>186510</v>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>Tanday ES</t>
+          <t>Pandol Primary School</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
@@ -4408,11 +4416,11 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>186510</v>
+        <v>500212</v>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>Pandol Primary School</t>
+          <t>Canangcaan Integrated School</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
@@ -4485,16 +4493,16 @@
         </is>
       </c>
       <c r="D49" s="5" t="n">
-        <v>500212</v>
+        <v>118206</v>
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>Canangcaan Integrated School</t>
+          <t>Cortes Central ES</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
         <is>
-          <t>Corella</t>
+          <t>Cortes</t>
         </is>
       </c>
       <c r="G49" s="5" t="n">
@@ -4562,11 +4570,11 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>118206</v>
+        <v>118207</v>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>Cortes Central ES</t>
+          <t>Dela Paz ES</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
@@ -4639,11 +4647,11 @@
         </is>
       </c>
       <c r="D51" s="5" t="n">
-        <v>118207</v>
+        <v>118208</v>
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>Dela Paz ES</t>
+          <t>Fatima ES</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
@@ -4716,11 +4724,11 @@
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>118208</v>
+        <v>118209</v>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>Fatima ES</t>
+          <t>Loreto ES</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
@@ -4793,11 +4801,11 @@
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>118209</v>
+        <v>118210</v>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>Loreto ES</t>
+          <t>Lourdes ES</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
@@ -4870,11 +4878,11 @@
         </is>
       </c>
       <c r="D54" s="5" t="n">
-        <v>118210</v>
+        <v>118211</v>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>Lourdes ES</t>
+          <t>Malayo ES</t>
         </is>
       </c>
       <c r="F54" s="5" t="inlineStr">
@@ -4947,11 +4955,11 @@
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>118211</v>
+        <v>118216</v>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>Malayo ES</t>
+          <t>San Roque ES</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
@@ -5024,20 +5032,20 @@
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>118216</v>
+        <v>118218</v>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>San Roque ES</t>
+          <t>Babag ES</t>
         </is>
       </c>
       <c r="F56" s="5" t="inlineStr">
         <is>
-          <t>Cortes</t>
+          <t>Dagohoy</t>
         </is>
       </c>
       <c r="G56" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="5" t="n">
         <v>1</v>
@@ -5101,11 +5109,11 @@
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>118218</v>
+        <v>118219</v>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>Babag ES</t>
+          <t>Cagawasan ES</t>
         </is>
       </c>
       <c r="F57" s="5" t="inlineStr">
@@ -5178,11 +5186,11 @@
         </is>
       </c>
       <c r="D58" s="5" t="n">
-        <v>118219</v>
+        <v>118220</v>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>Cagawasan ES</t>
+          <t>Caluasan ES</t>
         </is>
       </c>
       <c r="F58" s="5" t="inlineStr">
@@ -5255,11 +5263,11 @@
         </is>
       </c>
       <c r="D59" s="5" t="n">
-        <v>118220</v>
+        <v>118221</v>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>Caluasan ES</t>
+          <t>Candelaria ES</t>
         </is>
       </c>
       <c r="F59" s="5" t="inlineStr">
@@ -5332,11 +5340,11 @@
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>118221</v>
+        <v>118222</v>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>Candelaria ES</t>
+          <t>Can-oling ES</t>
         </is>
       </c>
       <c r="F60" s="5" t="inlineStr">
@@ -5409,11 +5417,11 @@
         </is>
       </c>
       <c r="D61" s="5" t="n">
-        <v>118222</v>
+        <v>118223</v>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>Can-oling ES</t>
+          <t>Dagohoy Central Elementary</t>
         </is>
       </c>
       <c r="F61" s="5" t="inlineStr">
@@ -5486,11 +5494,11 @@
         </is>
       </c>
       <c r="D62" s="5" t="n">
-        <v>118223</v>
+        <v>118227</v>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>Dagohoy Central Elementary</t>
+          <t>Mahayag Elementary School</t>
         </is>
       </c>
       <c r="F62" s="5" t="inlineStr">
@@ -5563,11 +5571,11 @@
         </is>
       </c>
       <c r="D63" s="5" t="n">
-        <v>118227</v>
+        <v>118228</v>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>Mahayag Elementary School</t>
+          <t>Malitbog Elementary School</t>
         </is>
       </c>
       <c r="F63" s="5" t="inlineStr">
@@ -5640,16 +5648,16 @@
         </is>
       </c>
       <c r="D64" s="5" t="n">
-        <v>118228</v>
+        <v>118630</v>
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>Malitbog Elementary School</t>
+          <t>Abehilan ES</t>
         </is>
       </c>
       <c r="F64" s="5" t="inlineStr">
         <is>
-          <t>Dagohoy</t>
+          <t>San Isidro</t>
         </is>
       </c>
       <c r="G64" s="5" t="n">
@@ -5717,11 +5725,11 @@
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>118630</v>
+        <v>118634</v>
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>Abehilan ES</t>
+          <t>Caimbang ES</t>
         </is>
       </c>
       <c r="F65" s="5" t="inlineStr">
@@ -5794,11 +5802,11 @@
         </is>
       </c>
       <c r="D66" s="5" t="n">
-        <v>118634</v>
+        <v>118635</v>
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>Caimbang ES</t>
+          <t>Cambansag Elementary</t>
         </is>
       </c>
       <c r="F66" s="5" t="inlineStr">
@@ -5871,11 +5879,11 @@
         </is>
       </c>
       <c r="D67" s="5" t="n">
-        <v>118635</v>
+        <v>118636</v>
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>Cambansag Elementary</t>
+          <t>Candungao ES</t>
         </is>
       </c>
       <c r="F67" s="5" t="inlineStr">
@@ -5948,11 +5956,11 @@
         </is>
       </c>
       <c r="D68" s="5" t="n">
-        <v>118636</v>
+        <v>118638</v>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>Candungao ES</t>
+          <t>Cansague Sur ES</t>
         </is>
       </c>
       <c r="F68" s="5" t="inlineStr">
@@ -6025,11 +6033,11 @@
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>118638</v>
+        <v>118641</v>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>Cansague Sur ES</t>
+          <t>San Isidro Central ES</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
@@ -6102,11 +6110,11 @@
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>118641</v>
+        <v>312327</v>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>San Isidro Central ES</t>
+          <t>Candungao High School</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
@@ -6179,20 +6187,20 @@
         </is>
       </c>
       <c r="D71" s="5" t="n">
-        <v>312327</v>
+        <v>118660</v>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>Candungao High School</t>
+          <t>Bayawahan ES</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t>San Isidro</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="G71" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" s="5" t="n">
         <v>1</v>
@@ -6256,11 +6264,11 @@
         </is>
       </c>
       <c r="D72" s="5" t="n">
-        <v>118660</v>
+        <v>118663</v>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>Bayawahan ES</t>
+          <t>Calinginan Norte Elementary School</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
@@ -6333,11 +6341,11 @@
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>118663</v>
+        <v>118665</v>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>Calinginan Norte Elementary School</t>
+          <t>Cambagui ES</t>
         </is>
       </c>
       <c r="F73" s="5" t="inlineStr">
@@ -6410,11 +6418,11 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>118665</v>
+        <v>118668</v>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>Cambagui ES</t>
+          <t>Lagtangan ES</t>
         </is>
       </c>
       <c r="F74" s="5" t="inlineStr">
@@ -6487,11 +6495,11 @@
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>118668</v>
+        <v>118671</v>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>Lagtangan ES</t>
+          <t>Magsaysay ES</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
@@ -6564,11 +6572,11 @@
         </is>
       </c>
       <c r="D76" s="5" t="n">
-        <v>118671</v>
+        <v>118672</v>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>Magsaysay ES</t>
+          <t>Sevilla Central ES</t>
         </is>
       </c>
       <c r="F76" s="5" t="inlineStr">
@@ -6641,11 +6649,11 @@
         </is>
       </c>
       <c r="D77" s="5" t="n">
-        <v>118672</v>
+        <v>302903</v>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>Sevilla Central ES</t>
+          <t>Sevilla National High School</t>
         </is>
       </c>
       <c r="F77" s="5" t="inlineStr">
@@ -6718,11 +6726,11 @@
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>302903</v>
+        <v>302904</v>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>Sevilla National High School</t>
+          <t>Cambagui-Calinginan Norte National  HS</t>
         </is>
       </c>
       <c r="F78" s="5" t="inlineStr">
@@ -6795,11 +6803,11 @@
         </is>
       </c>
       <c r="D79" s="5" t="n">
-        <v>302904</v>
+        <v>312310</v>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>Cambagui-Calinginan Norte National  HS</t>
+          <t>Bayawahan National High School</t>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
@@ -6872,20 +6880,20 @@
         </is>
       </c>
       <c r="D80" s="5" t="n">
-        <v>312310</v>
+        <v>118699</v>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>Bayawahan National High School</t>
+          <t>Cambuac Sur ES</t>
         </is>
       </c>
       <c r="F80" s="5" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Sikatuna</t>
         </is>
       </c>
       <c r="G80" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H80" s="5" t="n">
         <v>1</v>
@@ -6949,11 +6957,11 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>118699</v>
+        <v>118700</v>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>Cambuac Sur ES</t>
+          <t>Sikatuna Central ES</t>
         </is>
       </c>
       <c r="F81" s="5" t="inlineStr">
@@ -7022,67 +7030,95 @@
       </c>
       <c r="C82" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D82" s="5" t="n">
-        <v>118700</v>
+        <v>118866</v>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>Sikatuna Central ES</t>
+          <t>Alcantara Central ES</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
         <is>
-          <t>Sikatuna</t>
+          <t>ALCANTARA</t>
         </is>
       </c>
       <c r="G82" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I82" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K82" s="5" t="n">
-        <v>130115.03</v>
+        <v>439726</v>
       </c>
       <c r="L82" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
+          <t>BATCH 2</t>
         </is>
       </c>
       <c r="M82" s="5" t="inlineStr"/>
       <c r="N82" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O82" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P82" s="5" t="inlineStr"/>
+      <c r="P82" s="7" t="n">
+        <v>45028</v>
+      </c>
       <c r="Q82" s="5" t="inlineStr"/>
-      <c r="R82" s="5" t="inlineStr"/>
-      <c r="S82" s="5" t="inlineStr"/>
-      <c r="T82" s="5" t="inlineStr"/>
-      <c r="U82" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="V82" s="7" t="n">
-        <v>44727</v>
-      </c>
-      <c r="W82" s="5" t="inlineStr"/>
-      <c r="X82" s="5" t="inlineStr"/>
-      <c r="Y82" s="5" t="inlineStr"/>
+      <c r="R82" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
+      <c r="S82" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+        </is>
+      </c>
+      <c r="T82" s="5" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="U82" s="5" t="inlineStr">
+        <is>
+          <t>October 24, 2022</t>
+        </is>
+      </c>
+      <c r="V82" s="5" t="inlineStr">
+        <is>
+          <t>Novembe 7, 2022</t>
+        </is>
+      </c>
+      <c r="W82" s="5" t="inlineStr">
+        <is>
+          <t>November 21, 2022</t>
+        </is>
+      </c>
+      <c r="X82" s="7" t="n">
+        <v>44931</v>
+      </c>
+      <c r="Y82" s="5" t="inlineStr">
+        <is>
+          <t>Ten twenty allied developers</t>
+        </is>
+      </c>
       <c r="Z82" s="5" t="inlineStr"/>
       <c r="AA82" s="6" t="n"/>
     </row>
@@ -7103,11 +7139,11 @@
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>118866</v>
+        <v>118868</v>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>Alcantara Central ES</t>
+          <t>Candabong ES</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">
@@ -7208,11 +7244,11 @@
         </is>
       </c>
       <c r="D84" s="5" t="n">
-        <v>118868</v>
+        <v>187004</v>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>Candabong ES</t>
+          <t>Palanas ES</t>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
@@ -7227,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" s="5" t="inlineStr">
         <is>
@@ -7235,7 +7271,7 @@
         </is>
       </c>
       <c r="K84" s="5" t="n">
-        <v>439726</v>
+        <v>219863</v>
       </c>
       <c r="L84" s="5" t="inlineStr">
         <is>
@@ -7313,11 +7349,11 @@
         </is>
       </c>
       <c r="D85" s="5" t="n">
-        <v>187004</v>
+        <v>302922</v>
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>Palanas ES</t>
+          <t>Alcantara NHS</t>
         </is>
       </c>
       <c r="F85" s="5" t="inlineStr">
@@ -7332,15 +7368,15 @@
         <v>1</v>
       </c>
       <c r="I85" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K85" s="5" t="n">
-        <v>219863</v>
+        <v>657930</v>
       </c>
       <c r="L85" s="5" t="inlineStr">
         <is>
@@ -7433,19 +7469,17 @@
       <c r="G86" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H86" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H86" s="5" t="inlineStr"/>
       <c r="I86" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J86" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
       <c r="K86" s="5" t="n">
-        <v>657930</v>
+        <v>2558274.37</v>
       </c>
       <c r="L86" s="5" t="inlineStr">
         <is>
@@ -7455,7 +7489,7 @@
       <c r="M86" s="5" t="inlineStr"/>
       <c r="N86" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O86" s="5" t="n">
@@ -7523,11 +7557,11 @@
         </is>
       </c>
       <c r="D87" s="5" t="n">
-        <v>302922</v>
+        <v>500649</v>
       </c>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>Alcantara NHS</t>
+          <t>Cabadiangan Integrated School</t>
         </is>
       </c>
       <c r="F87" s="5" t="inlineStr">
@@ -7538,17 +7572,19 @@
       <c r="G87" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H87" s="5" t="inlineStr"/>
+      <c r="H87" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I87" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J87" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF SCHOOL CLINIC</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 2A - WITH WATER CONTAINER, WITHOUT ROOFING)</t>
         </is>
       </c>
       <c r="K87" s="5" t="n">
-        <v>2558274.37</v>
+        <v>89547.33</v>
       </c>
       <c r="L87" s="5" t="inlineStr">
         <is>
@@ -7558,7 +7594,7 @@
       <c r="M87" s="5" t="inlineStr"/>
       <c r="N87" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O87" s="5" t="n">
@@ -7626,16 +7662,16 @@
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>500649</v>
+        <v>302918</v>
       </c>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>Cabadiangan Integrated School</t>
+          <t>Nug-as NHS</t>
         </is>
       </c>
       <c r="F88" s="5" t="inlineStr">
         <is>
-          <t>ALCANTARA</t>
+          <t>ALCOY</t>
         </is>
       </c>
       <c r="G88" s="5" t="n">
@@ -7649,11 +7685,11 @@
       </c>
       <c r="J88" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 2A - WITH WATER CONTAINER, WITHOUT ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K88" s="5" t="n">
-        <v>89547.33</v>
+        <v>219310</v>
       </c>
       <c r="L88" s="5" t="inlineStr">
         <is>
@@ -7670,17 +7706,17 @@
         <v>1</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>45028</v>
+        <v>44998</v>
       </c>
       <c r="Q88" s="5" t="inlineStr"/>
       <c r="R88" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
         </is>
       </c>
       <c r="S88" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-03</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
         </is>
       </c>
       <c r="T88" s="5" t="inlineStr">
@@ -7708,7 +7744,7 @@
       </c>
       <c r="Y88" s="5" t="inlineStr">
         <is>
-          <t>Ten twenty allied developers</t>
+          <t>GCATZ Construction</t>
         </is>
       </c>
       <c r="Z88" s="5" t="inlineStr"/>
@@ -7731,11 +7767,11 @@
         </is>
       </c>
       <c r="D89" s="5" t="n">
-        <v>302918</v>
+        <v>500650</v>
       </c>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>Nug-as NHS</t>
+          <t>Pasol-Pugalo IS</t>
         </is>
       </c>
       <c r="F89" s="5" t="inlineStr">
@@ -7754,11 +7790,11 @@
       </c>
       <c r="J89" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K89" s="5" t="n">
-        <v>219310</v>
+        <v>219863</v>
       </c>
       <c r="L89" s="5" t="inlineStr">
         <is>
@@ -7836,16 +7872,16 @@
         </is>
       </c>
       <c r="D90" s="5" t="n">
-        <v>500650</v>
+        <v>119132</v>
       </c>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>Pasol-Pugalo IS</t>
+          <t>Lunop ES</t>
         </is>
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>ALCOY</t>
+          <t>BOLJOON</t>
         </is>
       </c>
       <c r="G90" s="5" t="n">
@@ -7941,11 +7977,11 @@
         </is>
       </c>
       <c r="D91" s="5" t="n">
-        <v>119132</v>
+        <v>302944</v>
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>Lunop ES</t>
+          <t>Lunop NHS</t>
         </is>
       </c>
       <c r="F91" s="5" t="inlineStr">
@@ -7964,11 +8000,11 @@
       </c>
       <c r="J91" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K91" s="5" t="n">
-        <v>219863</v>
+        <v>219310</v>
       </c>
       <c r="L91" s="5" t="inlineStr">
         <is>
@@ -8046,16 +8082,16 @@
         </is>
       </c>
       <c r="D92" s="5" t="n">
-        <v>302944</v>
+        <v>119404</v>
       </c>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>Lunop NHS</t>
+          <t>Kabatuan ES</t>
         </is>
       </c>
       <c r="F92" s="5" t="inlineStr">
         <is>
-          <t>BOLJOON</t>
+          <t>GINATILAN</t>
         </is>
       </c>
       <c r="G92" s="5" t="n">
@@ -8069,11 +8105,11 @@
       </c>
       <c r="J92" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K92" s="5" t="n">
-        <v>219310</v>
+        <v>219863</v>
       </c>
       <c r="L92" s="5" t="inlineStr">
         <is>
@@ -8090,17 +8126,17 @@
         <v>1</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>44998</v>
+        <v>45028</v>
       </c>
       <c r="Q92" s="5" t="inlineStr"/>
       <c r="R92" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
         </is>
       </c>
       <c r="S92" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
         </is>
       </c>
       <c r="T92" s="5" t="inlineStr">
@@ -8128,7 +8164,7 @@
       </c>
       <c r="Y92" s="5" t="inlineStr">
         <is>
-          <t>GCATZ Construction</t>
+          <t>Ten twenty allied Developers</t>
         </is>
       </c>
       <c r="Z92" s="5" t="inlineStr"/>
@@ -8151,11 +8187,11 @@
         </is>
       </c>
       <c r="D93" s="5" t="n">
-        <v>119404</v>
+        <v>500894</v>
       </c>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>Kabatuan ES</t>
+          <t>Ginatilan Integrated School</t>
         </is>
       </c>
       <c r="F93" s="5" t="inlineStr">
@@ -8170,15 +8206,15 @@
         <v>1</v>
       </c>
       <c r="I93" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K93" s="5" t="n">
-        <v>219863</v>
+        <v>289269.18</v>
       </c>
       <c r="L93" s="5" t="inlineStr">
         <is>
@@ -8271,19 +8307,17 @@
       <c r="G94" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H94" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H94" s="5" t="inlineStr"/>
       <c r="I94" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
         </is>
       </c>
       <c r="K94" s="5" t="n">
-        <v>289269.18</v>
+        <v>1325497.29</v>
       </c>
       <c r="L94" s="5" t="inlineStr">
         <is>
@@ -8361,32 +8395,34 @@
         </is>
       </c>
       <c r="D95" s="5" t="n">
-        <v>500894</v>
+        <v>119445</v>
       </c>
       <c r="E95" s="5" t="inlineStr">
         <is>
-          <t>Ginatilan Integrated School</t>
+          <t>Malabuyoc Central ES</t>
         </is>
       </c>
       <c r="F95" s="5" t="inlineStr">
         <is>
-          <t>GINATILAN</t>
+          <t>MALABUYOC</t>
         </is>
       </c>
       <c r="G95" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H95" s="5" t="inlineStr"/>
+      <c r="H95" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I95" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J95" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
+          <t>PROPOSED CONSTRUCTION OF THREE (3) UNITS GROUP HANDWASHING FACILITY OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH &amp; ONE UNIT OPTION 1A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH</t>
         </is>
       </c>
       <c r="K95" s="5" t="n">
-        <v>1325497.29</v>
+        <v>576528.38</v>
       </c>
       <c r="L95" s="5" t="inlineStr">
         <is>
@@ -8464,11 +8500,11 @@
         </is>
       </c>
       <c r="D96" s="5" t="n">
-        <v>119445</v>
+        <v>119446</v>
       </c>
       <c r="E96" s="5" t="inlineStr">
         <is>
-          <t>Malabuyoc Central ES</t>
+          <t>Mindanao ES</t>
         </is>
       </c>
       <c r="F96" s="5" t="inlineStr">
@@ -8483,15 +8519,15 @@
         <v>1</v>
       </c>
       <c r="I96" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J96" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF THREE (3) UNITS GROUP HANDWASHING FACILITY OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH &amp; ONE UNIT OPTION 1A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 2A - WITH WATER CONTAINER, WITHOUT ROOFING)</t>
         </is>
       </c>
       <c r="K96" s="5" t="n">
-        <v>576528.38</v>
+        <v>89547.33</v>
       </c>
       <c r="L96" s="5" t="inlineStr">
         <is>
@@ -8569,16 +8605,16 @@
         </is>
       </c>
       <c r="D97" s="5" t="n">
-        <v>119446</v>
+        <v>119601</v>
       </c>
       <c r="E97" s="5" t="inlineStr">
         <is>
-          <t>Mindanao ES</t>
+          <t>Ronda Central ES</t>
         </is>
       </c>
       <c r="F97" s="5" t="inlineStr">
         <is>
-          <t>MALABUYOC</t>
+          <t>RONDA</t>
         </is>
       </c>
       <c r="G97" s="5" t="n">
@@ -8592,11 +8628,11 @@
       </c>
       <c r="J97" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 2A - WITH WATER CONTAINER, WITHOUT ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K97" s="5" t="n">
-        <v>89547.33</v>
+        <v>162952.68</v>
       </c>
       <c r="L97" s="5" t="inlineStr">
         <is>
@@ -8606,24 +8642,30 @@
       <c r="M97" s="5" t="inlineStr"/>
       <c r="N97" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O97" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P97" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q97" s="5" t="inlineStr"/>
+      <c r="P97" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
+      <c r="Q97" s="5" t="inlineStr">
+        <is>
+          <t>April 13, 2023</t>
+        </is>
+      </c>
       <c r="R97" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
         </is>
       </c>
       <c r="S97" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF Health Batch 2-DepED-R7-Cebu02</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
         </is>
       </c>
       <c r="T97" s="5" t="inlineStr">
@@ -8651,7 +8693,7 @@
       </c>
       <c r="Y97" s="5" t="inlineStr">
         <is>
-          <t>Ten twenty allied Developers</t>
+          <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
         </is>
       </c>
       <c r="Z97" s="5" t="inlineStr"/>
@@ -8689,19 +8731,17 @@
       <c r="G98" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H98" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H98" s="5" t="inlineStr"/>
       <c r="I98" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J98" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
         </is>
       </c>
       <c r="K98" s="5" t="n">
-        <v>162952.68</v>
+        <v>1325497.29</v>
       </c>
       <c r="L98" s="5" t="inlineStr">
         <is>
@@ -8785,11 +8825,11 @@
         </is>
       </c>
       <c r="D99" s="5" t="n">
-        <v>119601</v>
+        <v>119602</v>
       </c>
       <c r="E99" s="5" t="inlineStr">
         <is>
-          <t>Ronda Central ES</t>
+          <t>Sta. Cruz ES</t>
         </is>
       </c>
       <c r="F99" s="5" t="inlineStr">
@@ -8800,17 +8840,19 @@
       <c r="G99" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H99" s="5" t="inlineStr"/>
+      <c r="H99" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I99" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
+          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K99" s="5" t="n">
-        <v>1325497.29</v>
+        <v>289269.18</v>
       </c>
       <c r="L99" s="5" t="inlineStr">
         <is>
@@ -8909,19 +8951,17 @@
       <c r="G100" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H100" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H100" s="5" t="inlineStr"/>
       <c r="I100" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
         </is>
       </c>
       <c r="K100" s="5" t="n">
-        <v>289269.18</v>
+        <v>1325497.29</v>
       </c>
       <c r="L100" s="5" t="inlineStr">
         <is>
@@ -9005,11 +9045,11 @@
         </is>
       </c>
       <c r="D101" s="5" t="n">
-        <v>119602</v>
+        <v>303034</v>
       </c>
       <c r="E101" s="5" t="inlineStr">
         <is>
-          <t>Sta. Cruz ES</t>
+          <t>Ronda NHS- Langin NHS Ext.</t>
         </is>
       </c>
       <c r="F101" s="5" t="inlineStr">
@@ -9020,17 +9060,19 @@
       <c r="G101" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H101" s="5" t="inlineStr"/>
+      <c r="H101" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I101" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J101" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 3B - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K101" s="5" t="n">
-        <v>1325497.29</v>
+        <v>162432.34</v>
       </c>
       <c r="L101" s="5" t="inlineStr">
         <is>
@@ -9058,12 +9100,12 @@
       </c>
       <c r="R101" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
         </is>
       </c>
       <c r="S101" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-04</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
         </is>
       </c>
       <c r="T101" s="5" t="inlineStr">
@@ -9091,7 +9133,7 @@
       </c>
       <c r="Y101" s="5" t="inlineStr">
         <is>
-          <t>M.P. Sorela Const. &amp; Supply &amp; Marine Services</t>
+          <t>Tri-bairn Construction</t>
         </is>
       </c>
       <c r="Z101" s="5" t="inlineStr"/>
@@ -9129,19 +9171,17 @@
       <c r="G102" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H102" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H102" s="5" t="inlineStr"/>
       <c r="I102" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J102" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 3B - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
         </is>
       </c>
       <c r="K102" s="5" t="n">
-        <v>162432.34</v>
+        <v>1325497.29</v>
       </c>
       <c r="L102" s="5" t="inlineStr">
         <is>
@@ -9246,11 +9286,11 @@
       </c>
       <c r="J103" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF WATER SYSTEM (Installation of Overhead water tank and Cistern tank with Solar - Powered Submersible Water Pump)</t>
+          <t>PROPOSED CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
       <c r="K103" s="5" t="n">
-        <v>1325497.29</v>
+        <v>2558274.37</v>
       </c>
       <c r="L103" s="5" t="inlineStr">
         <is>
@@ -9334,32 +9374,34 @@
         </is>
       </c>
       <c r="D104" s="5" t="n">
-        <v>303034</v>
+        <v>119613</v>
       </c>
       <c r="E104" s="5" t="inlineStr">
         <is>
-          <t>Ronda NHS- Langin NHS Ext.</t>
+          <t>Samboan Central ES</t>
         </is>
       </c>
       <c r="F104" s="5" t="inlineStr">
         <is>
-          <t>RONDA</t>
+          <t>SAMBOAN</t>
         </is>
       </c>
       <c r="G104" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H104" s="5" t="inlineStr"/>
+      <c r="H104" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I104" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF SCHOOL CLINIC</t>
+          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K104" s="5" t="n">
-        <v>2558274.37</v>
+        <v>289269.18</v>
       </c>
       <c r="L104" s="5" t="inlineStr">
         <is>
@@ -9369,30 +9411,24 @@
       <c r="M104" s="5" t="inlineStr"/>
       <c r="N104" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O104" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P104" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
-      <c r="Q104" s="5" t="inlineStr">
-        <is>
-          <t>April 13, 2023</t>
-        </is>
-      </c>
+      <c r="P104" s="7" t="n">
+        <v>44998</v>
+      </c>
+      <c r="Q104" s="5" t="inlineStr"/>
       <c r="R104" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
         </is>
       </c>
       <c r="S104" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-05</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
         </is>
       </c>
       <c r="T104" s="5" t="inlineStr">
@@ -9420,7 +9456,7 @@
       </c>
       <c r="Y104" s="5" t="inlineStr">
         <is>
-          <t>Tri-bairn Construction</t>
+          <t>GCATZ Construction</t>
         </is>
       </c>
       <c r="Z104" s="5" t="inlineStr"/>
@@ -9443,11 +9479,11 @@
         </is>
       </c>
       <c r="D105" s="5" t="n">
-        <v>119613</v>
+        <v>303090</v>
       </c>
       <c r="E105" s="5" t="inlineStr">
         <is>
-          <t>Samboan Central ES</t>
+          <t>Samboan NHS</t>
         </is>
       </c>
       <c r="F105" s="5" t="inlineStr">
@@ -9462,15 +9498,15 @@
         <v>1</v>
       </c>
       <c r="I105" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 3A - ONE - SIDED, WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K105" s="5" t="n">
-        <v>289269.18</v>
+        <v>219310</v>
       </c>
       <c r="L105" s="5" t="inlineStr">
         <is>
@@ -9548,16 +9584,16 @@
         </is>
       </c>
       <c r="D106" s="5" t="n">
-        <v>303090</v>
+        <v>119860</v>
       </c>
       <c r="E106" s="5" t="inlineStr">
         <is>
-          <t>Samboan NHS</t>
+          <t>Puertobello ES</t>
         </is>
       </c>
       <c r="F106" s="5" t="inlineStr">
         <is>
-          <t>SAMBOAN</t>
+          <t>TUDELA</t>
         </is>
       </c>
       <c r="G106" s="5" t="n">
@@ -9571,11 +9607,11 @@
       </c>
       <c r="J106" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K106" s="5" t="n">
-        <v>219310</v>
+        <v>239863</v>
       </c>
       <c r="L106" s="5" t="inlineStr">
         <is>
@@ -9585,24 +9621,24 @@
       <c r="M106" s="5" t="inlineStr"/>
       <c r="N106" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O106" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P106" s="7" t="n">
-        <v>44998</v>
+        <v>45028</v>
       </c>
       <c r="Q106" s="5" t="inlineStr"/>
       <c r="R106" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
         </is>
       </c>
       <c r="S106" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-01</t>
+          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
         </is>
       </c>
       <c r="T106" s="5" t="inlineStr">
@@ -9630,7 +9666,7 @@
       </c>
       <c r="Y106" s="5" t="inlineStr">
         <is>
-          <t>GCATZ Construction</t>
+          <t>Barr steel Construction</t>
         </is>
       </c>
       <c r="Z106" s="5" t="inlineStr"/>
@@ -9653,11 +9689,11 @@
         </is>
       </c>
       <c r="D107" s="5" t="n">
-        <v>119860</v>
+        <v>303080</v>
       </c>
       <c r="E107" s="5" t="inlineStr">
         <is>
-          <t>Puertobello ES</t>
+          <t>Puertobello NHS</t>
         </is>
       </c>
       <c r="F107" s="5" t="inlineStr">
@@ -9672,15 +9708,15 @@
         <v>1</v>
       </c>
       <c r="I107" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION A - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
         </is>
       </c>
       <c r="K107" s="5" t="n">
-        <v>239863</v>
+        <v>478620</v>
       </c>
       <c r="L107" s="5" t="inlineStr">
         <is>
@@ -9773,19 +9809,17 @@
       <c r="G108" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H108" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H108" s="5" t="inlineStr"/>
       <c r="I108" s="5" t="n">
         <v>2</v>
       </c>
       <c r="J108" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF ONE (1) UNIT GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION B - WITH ROOFING)</t>
+          <t>PROPOSED CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
       <c r="K108" s="5" t="n">
-        <v>478620</v>
+        <v>2808274.37</v>
       </c>
       <c r="L108" s="5" t="inlineStr">
         <is>
@@ -9846,112 +9880,9 @@
       <c r="Z108" s="5" t="inlineStr"/>
       <c r="AA108" s="6" t="n"/>
     </row>
-    <row r="109">
-      <c r="A109" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B109" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C109" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D109" s="5" t="n">
-        <v>303080</v>
-      </c>
-      <c r="E109" s="5" t="inlineStr">
-        <is>
-          <t>Puertobello NHS</t>
-        </is>
-      </c>
-      <c r="F109" s="5" t="inlineStr">
-        <is>
-          <t>TUDELA</t>
-        </is>
-      </c>
-      <c r="G109" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H109" s="5" t="inlineStr"/>
-      <c r="I109" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J109" s="5" t="inlineStr">
-        <is>
-          <t>PROPOSED CONSTRUCTION OF SCHOOL CLINIC</t>
-        </is>
-      </c>
-      <c r="K109" s="5" t="n">
-        <v>2808274.37</v>
-      </c>
-      <c r="L109" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M109" s="5" t="inlineStr"/>
-      <c r="N109" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O109" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P109" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q109" s="5" t="inlineStr"/>
-      <c r="R109" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
-        </is>
-      </c>
-      <c r="S109" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 BEFF-Health Batch2-DepED-R7-Cebu-06</t>
-        </is>
-      </c>
-      <c r="T109" s="5" t="inlineStr">
-        <is>
-          <t>October 14, 2022</t>
-        </is>
-      </c>
-      <c r="U109" s="5" t="inlineStr">
-        <is>
-          <t>October 24, 2022</t>
-        </is>
-      </c>
-      <c r="V109" s="5" t="inlineStr">
-        <is>
-          <t>Novembe 7, 2022</t>
-        </is>
-      </c>
-      <c r="W109" s="5" t="inlineStr">
-        <is>
-          <t>November 21, 2022</t>
-        </is>
-      </c>
-      <c r="X109" s="7" t="n">
-        <v>44931</v>
-      </c>
-      <c r="Y109" s="5" t="inlineStr">
-        <is>
-          <t>Barr steel Construction</t>
-        </is>
-      </c>
-      <c r="Z109" s="5" t="inlineStr"/>
-      <c r="AA109" s="6" t="n"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA109" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA108" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
